--- a/TCS_SMART-Pivot_Grid.xlsx
+++ b/TCS_SMART-Pivot_Grid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\Completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771F37C3-D696-40B0-B999-C49367C1F253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E013D34-2E25-4E77-956A-33D8E65460FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="472">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -573,34 +573,10 @@
 Spend CP :  Qwerty</t>
   </si>
   <si>
-    <t>WEB-5908</t>
-  </si>
-  <si>
-    <t>WEB-5838</t>
-  </si>
-  <si>
-    <t>WEB-5799</t>
-  </si>
-  <si>
-    <t>WEB-5794</t>
-  </si>
-  <si>
-    <t>WEB-6095</t>
-  </si>
-  <si>
-    <t>WEB-5930</t>
-  </si>
-  <si>
     <t>Verify Total summary result in pivot table should be accurate</t>
   </si>
   <si>
-    <t>WEB-4997</t>
-  </si>
-  <si>
     <t>Verify Pivot options metrics should be displayed according to selecetd report (i.e QA Testing - Ad Ex - Media Spend  and Monthly spend) in Brand monthly account</t>
-  </si>
-  <si>
-    <t>WEB-4987</t>
   </si>
   <si>
     <t>Verify Spend CP and Spend LY should be displayed as 0$ instead of blank cell in excel if record spendCP/LY value is 0$</t>
@@ -708,9 +684,6 @@
     <t>Verify Pivot Grid when no metrics options are selected</t>
   </si>
   <si>
-    <t>WEB-5844, WEB-5017</t>
-  </si>
-  <si>
     <t>Uncheck all the checked metrics options</t>
   </si>
   <si>
@@ -721,9 +694,6 @@
   </si>
   <si>
     <t>File should be exported in excel format</t>
-  </si>
-  <si>
-    <t>WEB-5279, WEB-6071</t>
   </si>
   <si>
     <t>Record having "0"values for Pages CP and Spend CP should be displayed as Disabled</t>
@@ -897,9 +867,6 @@
     <t xml:space="preserve">1.Verify checkbox should be Unchecked
 2.Unchecked checkbox should be displayed in Grey color
 </t>
-  </si>
-  <si>
-    <t>Icon issue WEB-7449</t>
   </si>
   <si>
     <t xml:space="preserve">1.All selected records should be unchecked
@@ -1456,9 +1423,6 @@
     <t>Verify Download functionality in Pivot Bulk Actions after user select Rank on</t>
   </si>
   <si>
-    <t>WEB-7572</t>
-  </si>
-  <si>
     <t>Apply any saved search</t>
   </si>
   <si>
@@ -1505,17 +1469,7 @@
     <t>Click on View selected button</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Selected records should be displayed as checked 
-</t>
-  </si>
-  <si>
     <t>Deselect all selected record from Pivot Grid</t>
-  </si>
-  <si>
-    <t>1.All record should vbe displayed</t>
-  </si>
-  <si>
-    <t>WEB-7574</t>
   </si>
   <si>
     <t>Sumit Rana</t>
@@ -1528,160 +1482,252 @@
 As a SMART User, I want to have the ability to understand the Pivot Grid functionality</t>
   </si>
   <si>
-    <t>US:WEB-7536_TC 01</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 02</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 03</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 04</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 05</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 06</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 07</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 08</t>
+    <t>IE11, Chrome &amp; Safari</t>
+  </si>
+  <si>
+    <t>TC48</t>
+  </si>
+  <si>
+    <t>Verify Pivot result should not remains persist between different reports</t>
+  </si>
+  <si>
+    <t>SMRT-5844, SMRT-5017</t>
+  </si>
+  <si>
+    <t>SMRT-5799</t>
+  </si>
+  <si>
+    <t>SMRT-5279, SMRT-6071</t>
+  </si>
+  <si>
+    <t>SMRT-5794</t>
+  </si>
+  <si>
+    <t>SMRT-6095</t>
+  </si>
+  <si>
+    <t>SMRT-5930</t>
+  </si>
+  <si>
+    <t>SMRT-5908</t>
+  </si>
+  <si>
+    <t>SMRT-4997</t>
+  </si>
+  <si>
+    <t>SMRT-4987</t>
+  </si>
+  <si>
+    <t>SMRT-5838</t>
+  </si>
+  <si>
+    <t>SMRT-8075</t>
+  </si>
+  <si>
+    <t>SMRT-7574</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 01</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 02</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 03</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 04</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 05</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 06</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 07</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 08</t>
   </si>
   <si>
     <t>1. User Should have valid Login Credentials
-2. Test case "US:WEB-7536_TC 07" must be executed</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 09</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 10</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 11</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 12</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 13</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 14</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 15</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 16</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 17</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 18</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 19</t>
+2. Test case "US:SMRT-7536_TC 07" must be executed</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 09</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 10</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 11</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 12</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 13</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 14</t>
+  </si>
+  <si>
+    <t>Icon issue SMRT-7449</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 15</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 16</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 17</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 18</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 19</t>
   </si>
   <si>
     <t xml:space="preserve">User have SMART URL with valid Login credential.
-Test case "US:WEB-7536_TC 18" must be executed
+Test case "US:SMRT-7536_TC 18" must be executed
 </t>
   </si>
   <si>
-    <t>US:WEB-7536_TC 20</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 21</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 22</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 23</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 24</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 25</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 26</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 27</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 28</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 29</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 30</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 31</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 32</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 33</t>
-  </si>
-  <si>
-    <t>Execute test case "US:WEB-7536_TC 18"</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 34</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 35</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 36</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 37</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 38</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 39</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 40</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 41</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 42</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 43</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 44</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 45</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 46</t>
-  </si>
-  <si>
-    <t>US:WEB-7536_TC 47</t>
-  </si>
-  <si>
-    <t>IE11, Chrome &amp; Safari</t>
+    <t>US:SMRT-7536_TC 20</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 21</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 22</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 23</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 24</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 25</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 26</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 27</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 28</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 29</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 30</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 31</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 32</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 33</t>
+  </si>
+  <si>
+    <t>Execute test case "US:SMRT-7536_TC 18"</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 34</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 35</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 36</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 37</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 38</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 39</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 40</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 41</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 42</t>
+  </si>
+  <si>
+    <t>SMRT-7572</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 43</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 44</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 45</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 46</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 47</t>
+  </si>
+  <si>
+    <t>US:SMRT-7536_TC 48</t>
+  </si>
+  <si>
+    <t>1.Selected records should be displayed as checked 
+2. View selected &amp; Reset selected button should be displayed as Enabled
+3.Selected record column field highlighted in sapphire color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Only selected record should be displayed
+</t>
+  </si>
+  <si>
+    <t>1.All record should be displayed
+2. View selected &amp; Reset selected button should be displayed as Disabled</t>
+  </si>
+  <si>
+    <t>Select any option from Pivot Grid</t>
+  </si>
+  <si>
+    <t>Click on Download options</t>
+  </si>
+  <si>
+    <t>1. Download options window should be open 
+2. View selected &amp; Reset selected option shouls be highlighted as Enabled</t>
+  </si>
+  <si>
+    <t>Selected option should be highlighted as Checked</t>
+  </si>
+  <si>
+    <t>Only selected option should be displayed in Pivot</t>
+  </si>
+  <si>
+    <t>Report - Print Report by Publication</t>
+  </si>
+  <si>
+    <t>Swich to other report</t>
+  </si>
+  <si>
+    <t>Select option View selected option</t>
+  </si>
+  <si>
+    <t>All the data in Pivot should be displayed</t>
   </si>
 </sst>
 </file>
@@ -3932,10 +3978,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -4235,10 +4281,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.91489361702127658</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5106382978723416E-2</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4434,10 +4480,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -5414,15 +5460,15 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" thickTop="1">
       <c r="A8" s="14" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B8" s="10">
         <f>'SMART - Pivot Grid'!G7</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="10">
         <f>'SMART - Pivot Grid'!G8</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="10">
         <f>'SMART - Pivot Grid'!G9</f>
@@ -5434,11 +5480,11 @@
       </c>
       <c r="F8" s="10">
         <f>SUM(B8:E8)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="11">
         <f>(B8+C8+D8)/(F8)</f>
-        <v>0.91489361702127658</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5456,11 +5502,11 @@
       </c>
       <c r="B10" s="8">
         <f>SUM(B8:B9)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="8">
         <f>SUM(C8:C9)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="8">
         <f>SUM(D8:D9)</f>
@@ -5472,11 +5518,11 @@
       </c>
       <c r="F10" s="8">
         <f>SUM(F8:F9)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="9">
         <f>SUM(G8:G8)</f>
-        <v>0.91489361702127658</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickTop="1">
@@ -5485,7 +5531,7 @@
       </c>
       <c r="G11" s="12">
         <f>100%-G10</f>
-        <v>8.5106382978723416E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5521,8 +5567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFE0A32-6BCF-4C88-980F-B61FEEB552A6}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5535,7 +5581,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="69" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B1" s="59" t="s">
         <v>8</v>
@@ -5544,12 +5590,12 @@
         <v>9</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="79" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -5576,7 +5622,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>198</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15">
@@ -5588,7 +5634,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>157</v>
+        <v>396</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -5599,7 +5645,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
@@ -5662,7 +5708,7 @@
         <v>66</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5674,7 +5720,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -5686,7 +5732,7 @@
         <v>68</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5818,10 +5864,10 @@
         <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>203</v>
+        <v>397</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -5859,7 +5905,7 @@
         <v>129</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>158</v>
+        <v>398</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -5885,10 +5931,10 @@
         <v>149</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F30" s="2"/>
     </row>
@@ -5898,10 +5944,10 @@
         <v>118</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -5912,7 +5958,7 @@
         <v>121</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15">
@@ -5921,7 +5967,7 @@
         <v>122</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -5933,10 +5979,10 @@
         <v>123</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>155</v>
+        <v>401</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -5947,10 +5993,10 @@
         <v>124</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>162</v>
+        <v>402</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -5961,10 +6007,10 @@
         <v>138</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>164</v>
+        <v>403</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -5975,10 +6021,10 @@
         <v>142</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>156</v>
+        <v>404</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -5989,7 +6035,7 @@
         <v>143</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -6001,7 +6047,7 @@
         <v>144</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -6013,7 +6059,7 @@
         <v>145</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -6022,10 +6068,10 @@
     <row r="41" spans="1:6" ht="15">
       <c r="A41" s="80"/>
       <c r="B41" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -6034,10 +6080,10 @@
     <row r="42" spans="1:6" ht="15">
       <c r="A42" s="80"/>
       <c r="B42" s="3" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -6046,10 +6092,10 @@
     <row r="43" spans="1:6" ht="15">
       <c r="A43" s="80"/>
       <c r="B43" s="3" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -6058,10 +6104,10 @@
     <row r="44" spans="1:6" ht="15">
       <c r="A44" s="80"/>
       <c r="B44" s="3" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -6070,10 +6116,10 @@
     <row r="45" spans="1:6" ht="15">
       <c r="A45" s="80"/>
       <c r="B45" s="3" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -6082,44 +6128,55 @@
     <row r="46" spans="1:6" ht="15">
       <c r="A46" s="80"/>
       <c r="B46" s="3" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15">
       <c r="A47" s="80"/>
       <c r="B47" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15">
       <c r="A48" s="80"/>
       <c r="B48" s="3" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="15">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:3" ht="15">
+        <v>386</v>
+      </c>
+      <c r="D48" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15">
+      <c r="B49" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D49" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="15">
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="2:3" ht="15">
+    <row r="51" spans="2:4" ht="15">
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="2:3" ht="15">
+    <row r="52" spans="2:4" ht="15">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="2:3" ht="15">
+    <row r="53" spans="2:4" ht="15">
       <c r="B53" s="3"/>
     </row>
   </sheetData>
@@ -6134,10 +6191,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C3D7A5-0B6C-4507-AA1D-974707D1F480}">
-  <dimension ref="A1:H857"/>
+  <dimension ref="A1:H853"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView topLeftCell="A403" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B418" sqref="B418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -6839,7 +6896,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
@@ -6856,26 +6913,26 @@
         <v>22</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="17"/>
       <c r="B6" s="13" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
       <c r="E6" s="17"/>
       <c r="F6" s="95" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="17"/>
       <c r="B7" s="13" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C7" s="26">
         <v>43790</v>
@@ -6886,8 +6943,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="28">
-        <f>COUNTIF(G11:G983,"Pass")</f>
-        <v>30</v>
+        <f>COUNTIF(G11:G979,"Pass")</f>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
@@ -6902,8 +6959,8 @@
         <v>5</v>
       </c>
       <c r="G8" s="28">
-        <f>COUNTIF(G12:G984,"Fail")</f>
-        <v>11</v>
+        <f>COUNTIF(G12:G980,"Fail")</f>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1">
@@ -6912,7 +6969,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17"/>
@@ -6920,14 +6977,14 @@
         <v>37</v>
       </c>
       <c r="G9" s="28">
-        <f>COUNTIF(G13:G985,"Blocked")</f>
+        <f>COUNTIF(G13:G981,"Blocked")</f>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1">
       <c r="A10" s="17"/>
       <c r="B10" s="13" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
@@ -6936,7 +6993,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="28">
-        <f>COUNTIF(G14:G986,"Not Executed")</f>
+        <f>COUNTIF(G14:G982,"Not Executed")</f>
         <v>4</v>
       </c>
     </row>
@@ -6947,7 +7004,7 @@
       </c>
       <c r="C11" s="18">
         <f>G7</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17"/>
@@ -6961,7 +7018,7 @@
       </c>
       <c r="C12" s="18">
         <f>G8</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17"/>
@@ -6971,7 +7028,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="17"/>
       <c r="B13" s="13" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C13" s="18">
         <f>G9</f>
@@ -6985,7 +7042,7 @@
     <row r="14" spans="1:8" ht="29.85" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="13" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C14" s="18">
         <f>G10</f>
@@ -7002,7 +7059,7 @@
     </row>
     <row r="16" spans="1:8" s="41" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="97" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B16" s="97"/>
       <c r="C16" s="97"/>
@@ -7014,7 +7071,7 @@
     </row>
     <row r="17" spans="1:8" s="41" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="98" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B17" s="98"/>
       <c r="C17" s="98"/>
@@ -7029,7 +7086,7 @@
         <v>407</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C18" s="82"/>
       <c r="D18" s="82"/>
@@ -7048,7 +7105,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C19" s="91"/>
       <c r="D19" s="91"/>
@@ -7064,7 +7121,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D20" s="47" t="s">
         <v>35</v>
@@ -7084,13 +7141,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="51" t="s">
@@ -7106,7 +7163,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D22" s="50"/>
       <c r="E22" s="51"/>
@@ -7123,7 +7180,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
@@ -7138,10 +7195,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D24" s="50"/>
       <c r="E24" s="50"/>
@@ -7156,10 +7213,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="50"/>
@@ -7174,10 +7231,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
@@ -7192,7 +7249,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C27" s="50" t="s">
         <v>50</v>
@@ -7244,7 +7301,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="90" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C30" s="91"/>
       <c r="D30" s="91"/>
@@ -7260,7 +7317,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D31" s="47" t="s">
         <v>35</v>
@@ -7280,10 +7337,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="50"/>
@@ -7317,7 +7374,7 @@
         <v>43</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="50"/>
@@ -7331,10 +7388,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D35" s="50" t="s">
         <v>46</v>
@@ -7350,10 +7407,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="50"/>
@@ -7367,10 +7424,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D37" s="50" t="s">
         <v>47</v>
@@ -7421,7 +7478,7 @@
         <v>28</v>
       </c>
       <c r="B40" s="90" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C40" s="91"/>
       <c r="D40" s="91"/>
@@ -7437,7 +7494,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D41" s="47" t="s">
         <v>35</v>
@@ -7457,10 +7514,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D42" s="50"/>
       <c r="E42" s="50"/>
@@ -7494,7 +7551,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D44" s="50"/>
       <c r="E44" s="50"/>
@@ -7508,10 +7565,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D45" s="50"/>
       <c r="E45" s="50"/>
@@ -7560,7 +7617,7 @@
         <v>28</v>
       </c>
       <c r="B48" s="90" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C48" s="91"/>
       <c r="D48" s="91"/>
@@ -7576,7 +7633,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D49" s="47" t="s">
         <v>35</v>
@@ -7596,10 +7653,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D50" s="50"/>
       <c r="E50" s="50"/>
@@ -7633,7 +7690,7 @@
         <v>43</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D52" s="50"/>
       <c r="E52" s="50"/>
@@ -7647,10 +7704,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D53" s="50"/>
       <c r="E53" s="50"/>
@@ -7664,10 +7721,10 @@
         <v>5</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D54" s="50"/>
       <c r="E54" s="50"/>
@@ -7692,16 +7749,16 @@
         <v>411</v>
       </c>
       <c r="B56" s="81" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D56" s="82" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E56" s="83" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F56" s="44" t="s">
         <v>27</v>
@@ -7716,7 +7773,7 @@
         <v>28</v>
       </c>
       <c r="B57" s="90" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C57" s="91"/>
       <c r="D57" s="91"/>
@@ -7732,7 +7789,7 @@
         <v>30</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D58" s="47" t="s">
         <v>35</v>
@@ -7752,10 +7809,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D59" s="50"/>
       <c r="E59" s="50"/>
@@ -7786,10 +7843,10 @@
         <v>3</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C61" s="66" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D61" s="50"/>
       <c r="E61" s="50"/>
@@ -7803,10 +7860,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C62" s="50" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D62" s="50"/>
       <c r="E62" s="50"/>
@@ -7820,7 +7877,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C63" s="50" t="s">
         <v>74</v>
@@ -7872,7 +7929,7 @@
         <v>28</v>
       </c>
       <c r="B66" s="90" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C66" s="91"/>
       <c r="D66" s="91"/>
@@ -7888,7 +7945,7 @@
         <v>30</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D67" s="47" t="s">
         <v>35</v>
@@ -7908,10 +7965,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D68" s="50"/>
       <c r="E68" s="50"/>
@@ -7945,7 +8002,7 @@
         <v>56</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D70" s="50"/>
       <c r="E70" s="50"/>
@@ -7959,10 +8016,10 @@
         <v>4</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C71" s="50" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D71" s="50"/>
       <c r="E71" s="50"/>
@@ -7976,10 +8033,10 @@
         <v>5</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C72" s="50" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D72" s="50"/>
       <c r="E72" s="50"/>
@@ -8028,7 +8085,7 @@
         <v>28</v>
       </c>
       <c r="B75" s="90" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C75" s="91"/>
       <c r="D75" s="91"/>
@@ -8044,7 +8101,7 @@
         <v>30</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D76" s="47" t="s">
         <v>35</v>
@@ -8064,10 +8121,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C77" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D77" s="50"/>
       <c r="E77" s="50"/>
@@ -8101,7 +8158,7 @@
         <v>59</v>
       </c>
       <c r="C79" s="62" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D79" s="50"/>
       <c r="E79" s="50"/>
@@ -8118,7 +8175,7 @@
         <v>63</v>
       </c>
       <c r="C80" s="66" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D80" s="50"/>
       <c r="E80" s="50"/>
@@ -8135,17 +8192,17 @@
         <v>60</v>
       </c>
       <c r="C81" s="62" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D81" s="62" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E81" s="50"/>
       <c r="F81" s="51" t="s">
         <v>5</v>
       </c>
       <c r="G81" s="49" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="41" customFormat="1" ht="45">
@@ -8153,10 +8210,10 @@
         <v>7</v>
       </c>
       <c r="B82" s="63" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C82" s="50" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D82" s="50"/>
       <c r="E82" s="50"/>
@@ -8164,7 +8221,7 @@
         <v>5</v>
       </c>
       <c r="G82" s="52" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="54" customFormat="1">
@@ -8233,7 +8290,7 @@
         <v>30</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D86" s="47" t="s">
         <v>35</v>
@@ -8256,17 +8313,17 @@
         <v>73</v>
       </c>
       <c r="C87" s="64" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D87" s="64" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E87" s="50"/>
       <c r="F87" s="51" t="s">
         <v>5</v>
       </c>
       <c r="G87" s="49" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="41" customFormat="1" ht="30">
@@ -8277,7 +8334,7 @@
         <v>60</v>
       </c>
       <c r="C88" s="50" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D88" s="50"/>
       <c r="E88" s="50"/>
@@ -8291,10 +8348,10 @@
         <v>3</v>
       </c>
       <c r="B89" s="49" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C89" s="50" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D89" s="50"/>
       <c r="E89" s="50"/>
@@ -8302,7 +8359,7 @@
         <v>5</v>
       </c>
       <c r="G89" s="52" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="54" customFormat="1">
@@ -8345,7 +8402,7 @@
         <v>28</v>
       </c>
       <c r="B92" s="90" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C92" s="91"/>
       <c r="D92" s="91"/>
@@ -8361,7 +8418,7 @@
         <v>30</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D93" s="47" t="s">
         <v>35</v>
@@ -8381,10 +8438,10 @@
         <v>1</v>
       </c>
       <c r="B94" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C94" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D94" s="50"/>
       <c r="E94" s="50"/>
@@ -8418,7 +8475,7 @@
         <v>59</v>
       </c>
       <c r="C96" s="50" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D96" s="50"/>
       <c r="E96" s="50"/>
@@ -8449,10 +8506,10 @@
         <v>5</v>
       </c>
       <c r="B98" s="49" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C98" s="50" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D98" s="50"/>
       <c r="E98" s="50"/>
@@ -8469,7 +8526,7 @@
         <v>72</v>
       </c>
       <c r="C99" s="62" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D99" s="50"/>
       <c r="E99" s="50"/>
@@ -8518,7 +8575,7 @@
         <v>28</v>
       </c>
       <c r="B102" s="90" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C102" s="91"/>
       <c r="D102" s="91"/>
@@ -8534,7 +8591,7 @@
         <v>30</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D103" s="47" t="s">
         <v>35</v>
@@ -8554,10 +8611,10 @@
         <v>1</v>
       </c>
       <c r="B104" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C104" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D104" s="50"/>
       <c r="E104" s="50"/>
@@ -8591,7 +8648,7 @@
         <v>59</v>
       </c>
       <c r="C106" s="50" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D106" s="50"/>
       <c r="E106" s="50"/>
@@ -8605,10 +8662,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="63" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C107" s="50" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D107" s="50"/>
       <c r="E107" s="50"/>
@@ -8616,7 +8673,7 @@
         <v>5</v>
       </c>
       <c r="G107" s="52" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="54" customFormat="1">
@@ -8635,16 +8692,16 @@
         <v>418</v>
       </c>
       <c r="B109" s="81" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C109" s="82" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D109" s="82" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E109" s="83" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F109" s="44" t="s">
         <v>27</v>
@@ -8659,7 +8716,7 @@
         <v>28</v>
       </c>
       <c r="B110" s="90" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C110" s="91"/>
       <c r="D110" s="91"/>
@@ -8675,7 +8732,7 @@
         <v>30</v>
       </c>
       <c r="C111" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D111" s="47" t="s">
         <v>35</v>
@@ -8695,10 +8752,10 @@
         <v>1</v>
       </c>
       <c r="B112" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C112" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D112" s="50"/>
       <c r="E112" s="50"/>
@@ -8729,10 +8786,10 @@
         <v>3</v>
       </c>
       <c r="B114" s="49" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C114" s="50" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D114" s="50"/>
       <c r="E114" s="50"/>
@@ -8746,10 +8803,10 @@
         <v>4</v>
       </c>
       <c r="B115" s="49" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C115" s="61" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D115" s="50"/>
       <c r="E115" s="50"/>
@@ -8774,16 +8831,16 @@
         <v>419</v>
       </c>
       <c r="B117" s="81" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C117" s="82" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D117" s="82" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E117" s="83" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F117" s="44" t="s">
         <v>27</v>
@@ -8798,7 +8855,7 @@
         <v>28</v>
       </c>
       <c r="B118" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C118" s="91"/>
       <c r="D118" s="91"/>
@@ -8814,7 +8871,7 @@
         <v>30</v>
       </c>
       <c r="C119" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D119" s="47" t="s">
         <v>35</v>
@@ -8834,10 +8891,10 @@
         <v>1</v>
       </c>
       <c r="B120" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C120" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D120" s="50"/>
       <c r="E120" s="50"/>
@@ -8868,10 +8925,10 @@
         <v>3</v>
       </c>
       <c r="B122" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C122" s="50" t="s">
         <v>243</v>
-      </c>
-      <c r="C122" s="50" t="s">
-        <v>254</v>
       </c>
       <c r="D122" s="50"/>
       <c r="E122" s="50"/>
@@ -8885,10 +8942,10 @@
         <v>4</v>
       </c>
       <c r="B123" s="49" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C123" s="61" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D123" s="50"/>
       <c r="E123" s="50"/>
@@ -8913,7 +8970,7 @@
         <v>420</v>
       </c>
       <c r="B125" s="81" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C125" s="82" t="s">
         <v>75</v>
@@ -8937,7 +8994,7 @@
         <v>28</v>
       </c>
       <c r="B126" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C126" s="91"/>
       <c r="D126" s="91"/>
@@ -8953,7 +9010,7 @@
         <v>30</v>
       </c>
       <c r="C127" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D127" s="47" t="s">
         <v>35</v>
@@ -8973,10 +9030,10 @@
         <v>1</v>
       </c>
       <c r="B128" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C128" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D128" s="50"/>
       <c r="E128" s="50"/>
@@ -8993,7 +9050,7 @@
         <v>82</v>
       </c>
       <c r="C129" s="50" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D129" s="50"/>
       <c r="E129" s="50"/>
@@ -9026,7 +9083,7 @@
         <v>4</v>
       </c>
       <c r="B131" s="49" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C131" s="50" t="s">
         <v>93</v>
@@ -9080,7 +9137,7 @@
         <v>28</v>
       </c>
       <c r="B134" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C134" s="91"/>
       <c r="D134" s="91"/>
@@ -9096,7 +9153,7 @@
         <v>30</v>
       </c>
       <c r="C135" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D135" s="47" t="s">
         <v>35</v>
@@ -9113,16 +9170,16 @@
     </row>
     <row r="136" spans="1:8" ht="165">
       <c r="A136" s="48" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B136" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C136" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D136" s="50" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E136" s="50"/>
       <c r="F136" s="51" t="s">
@@ -9138,7 +9195,7 @@
         <v>82</v>
       </c>
       <c r="C137" s="50" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D137" s="50"/>
       <c r="E137" s="50"/>
@@ -9146,7 +9203,7 @@
         <v>4</v>
       </c>
       <c r="G137" s="52" t="s">
-        <v>249</v>
+        <v>422</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.75">
@@ -9154,13 +9211,13 @@
         <v>3</v>
       </c>
       <c r="B138" s="49" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C138" s="50" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D138" s="50" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E138" s="50"/>
       <c r="F138" s="51" t="s">
@@ -9173,10 +9230,10 @@
         <v>4</v>
       </c>
       <c r="B139" s="49" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C139" s="50" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D139" s="50"/>
       <c r="E139" s="50"/>
@@ -9191,10 +9248,10 @@
         <v>5</v>
       </c>
       <c r="B140" s="49" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C140" s="50" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D140" s="50"/>
       <c r="E140" s="50"/>
@@ -9216,7 +9273,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="43" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B142" s="81" t="s">
         <v>87</v>
@@ -9243,7 +9300,7 @@
         <v>28</v>
       </c>
       <c r="B143" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C143" s="91"/>
       <c r="D143" s="91"/>
@@ -9259,7 +9316,7 @@
         <v>30</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D144" s="47" t="s">
         <v>35</v>
@@ -9279,10 +9336,10 @@
         <v>1</v>
       </c>
       <c r="B145" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C145" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D145" s="50"/>
       <c r="E145" s="50"/>
@@ -9299,7 +9356,7 @@
         <v>82</v>
       </c>
       <c r="C146" s="50" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D146" s="50"/>
       <c r="E146" s="50"/>
@@ -9330,10 +9387,10 @@
         <v>4</v>
       </c>
       <c r="B148" s="49" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C148" s="50" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D148" s="50"/>
       <c r="E148" s="50"/>
@@ -9347,10 +9404,10 @@
         <v>5</v>
       </c>
       <c r="B149" s="49" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C149" s="50" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D149" s="50"/>
       <c r="E149" s="50"/>
@@ -9372,7 +9429,7 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="43" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B151" s="81" t="s">
         <v>85</v>
@@ -9399,7 +9456,7 @@
         <v>28</v>
       </c>
       <c r="B152" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C152" s="91"/>
       <c r="D152" s="91"/>
@@ -9415,7 +9472,7 @@
         <v>30</v>
       </c>
       <c r="C153" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D153" s="47" t="s">
         <v>35</v>
@@ -9435,10 +9492,10 @@
         <v>1</v>
       </c>
       <c r="B154" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C154" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D154" s="50"/>
       <c r="E154" s="50"/>
@@ -9455,7 +9512,7 @@
         <v>82</v>
       </c>
       <c r="C155" s="50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D155" s="50"/>
       <c r="E155" s="50"/>
@@ -9469,10 +9526,10 @@
         <v>3</v>
       </c>
       <c r="B156" s="49" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C156" s="50" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D156" s="50"/>
       <c r="E156" s="50"/>
@@ -9489,7 +9546,7 @@
         <v>89</v>
       </c>
       <c r="C157" s="50" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D157" s="50"/>
       <c r="E157" s="50"/>
@@ -9506,7 +9563,7 @@
         <v>90</v>
       </c>
       <c r="C158" s="50" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D158" s="50"/>
       <c r="E158" s="50"/>
@@ -9523,7 +9580,7 @@
         <v>91</v>
       </c>
       <c r="C159" s="50" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D159" s="50"/>
       <c r="E159" s="50"/>
@@ -9545,7 +9602,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="43" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B161" s="81" t="s">
         <v>88</v>
@@ -9572,7 +9629,7 @@
         <v>28</v>
       </c>
       <c r="B162" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C162" s="91"/>
       <c r="D162" s="91"/>
@@ -9588,7 +9645,7 @@
         <v>30</v>
       </c>
       <c r="C163" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D163" s="47" t="s">
         <v>35</v>
@@ -9608,10 +9665,10 @@
         <v>1</v>
       </c>
       <c r="B164" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C164" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D164" s="50"/>
       <c r="E164" s="50"/>
@@ -9628,7 +9685,7 @@
         <v>82</v>
       </c>
       <c r="C165" s="50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D165" s="50"/>
       <c r="E165" s="50"/>
@@ -9642,7 +9699,7 @@
         <v>3</v>
       </c>
       <c r="B166" s="49" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C166" s="50" t="s">
         <v>104</v>
@@ -9659,10 +9716,10 @@
         <v>4</v>
       </c>
       <c r="B167" s="49" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C167" s="50" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D167" s="50" t="s">
         <v>103</v>
@@ -9678,10 +9735,10 @@
         <v>5</v>
       </c>
       <c r="B168" s="49" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C168" s="50" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D168" s="50" t="s">
         <v>103</v>
@@ -9697,10 +9754,10 @@
         <v>6</v>
       </c>
       <c r="B169" s="49" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C169" s="50" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D169" s="50" t="s">
         <v>103</v>
@@ -9716,10 +9773,10 @@
         <v>7</v>
       </c>
       <c r="B170" s="49" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C170" s="50" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D170" s="50" t="s">
         <v>103</v>
@@ -9735,10 +9792,10 @@
         <v>8</v>
       </c>
       <c r="B171" s="49" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C171" s="50" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D171" s="50" t="s">
         <v>103</v>
@@ -9754,10 +9811,10 @@
         <v>9</v>
       </c>
       <c r="B172" s="49" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C172" s="50" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D172" s="50" t="s">
         <v>103</v>
@@ -9776,7 +9833,7 @@
         <v>102</v>
       </c>
       <c r="C173" s="50" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D173" s="50"/>
       <c r="E173" s="50"/>
@@ -9798,7 +9855,7 @@
     </row>
     <row r="175" spans="1:7" ht="15.75" customHeight="1">
       <c r="A175" s="43" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B175" s="81" t="s">
         <v>95</v>
@@ -9825,7 +9882,7 @@
         <v>28</v>
       </c>
       <c r="B176" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C176" s="91"/>
       <c r="D176" s="91"/>
@@ -9841,7 +9898,7 @@
         <v>30</v>
       </c>
       <c r="C177" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D177" s="47" t="s">
         <v>35</v>
@@ -9861,10 +9918,10 @@
         <v>1</v>
       </c>
       <c r="B178" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C178" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D178" s="50"/>
       <c r="E178" s="50"/>
@@ -9881,7 +9938,7 @@
         <v>82</v>
       </c>
       <c r="C179" s="50" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D179" s="50"/>
       <c r="E179" s="50"/>
@@ -9895,7 +9952,7 @@
         <v>3</v>
       </c>
       <c r="B180" s="49" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C180" s="50" t="s">
         <v>104</v>
@@ -9932,7 +9989,7 @@
         <v>101</v>
       </c>
       <c r="C182" s="50" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D182" s="50" t="s">
         <v>112</v>
@@ -9956,7 +10013,7 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="43" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B184" s="81" t="s">
         <v>116</v>
@@ -9983,7 +10040,7 @@
         <v>28</v>
       </c>
       <c r="B185" s="90" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C185" s="91"/>
       <c r="D185" s="91"/>
@@ -9999,7 +10056,7 @@
         <v>30</v>
       </c>
       <c r="C186" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D186" s="47" t="s">
         <v>35</v>
@@ -10019,10 +10076,10 @@
         <v>1</v>
       </c>
       <c r="B187" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C187" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D187" s="50"/>
       <c r="E187" s="50"/>
@@ -10039,7 +10096,7 @@
         <v>82</v>
       </c>
       <c r="C188" s="50" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D188" s="50"/>
       <c r="E188" s="50"/>
@@ -10053,7 +10110,7 @@
         <v>3</v>
       </c>
       <c r="B189" s="49" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C189" s="50" t="s">
         <v>104</v>
@@ -10097,7 +10154,7 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="43" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B192" s="81" t="s">
         <v>151</v>
@@ -10124,7 +10181,7 @@
         <v>28</v>
       </c>
       <c r="B193" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C193" s="91"/>
       <c r="D193" s="91"/>
@@ -10140,7 +10197,7 @@
         <v>30</v>
       </c>
       <c r="C194" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D194" s="47" t="s">
         <v>35</v>
@@ -10160,10 +10217,10 @@
         <v>1</v>
       </c>
       <c r="B195" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C195" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D195" s="50"/>
       <c r="E195" s="50"/>
@@ -10180,7 +10237,7 @@
         <v>82</v>
       </c>
       <c r="C196" s="50" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D196" s="50"/>
       <c r="E196" s="50"/>
@@ -10194,7 +10251,7 @@
         <v>3</v>
       </c>
       <c r="B197" s="49" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C197" s="50" t="s">
         <v>94</v>
@@ -10231,7 +10288,7 @@
         <v>101</v>
       </c>
       <c r="C199" s="50" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D199" s="50" t="s">
         <v>152</v>
@@ -10255,7 +10312,7 @@
     </row>
     <row r="201" spans="1:7" ht="18.75" customHeight="1">
       <c r="A201" s="43" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B201" s="81" t="s">
         <v>153</v>
@@ -10282,7 +10339,7 @@
         <v>28</v>
       </c>
       <c r="B202" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C202" s="91"/>
       <c r="D202" s="91"/>
@@ -10298,7 +10355,7 @@
         <v>30</v>
       </c>
       <c r="C203" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D203" s="47" t="s">
         <v>35</v>
@@ -10318,10 +10375,10 @@
         <v>1</v>
       </c>
       <c r="B204" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C204" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D204" s="50"/>
       <c r="E204" s="50"/>
@@ -10338,7 +10395,7 @@
         <v>82</v>
       </c>
       <c r="C205" s="50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D205" s="50"/>
       <c r="E205" s="50"/>
@@ -10352,7 +10409,7 @@
         <v>3</v>
       </c>
       <c r="B206" s="49" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C206" s="50" t="s">
         <v>94</v>
@@ -10389,7 +10446,7 @@
         <v>101</v>
       </c>
       <c r="C208" s="50" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D208" s="50" t="s">
         <v>154</v>
@@ -10413,7 +10470,7 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="43" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B210" s="81" t="s">
         <v>119</v>
@@ -10440,7 +10497,7 @@
         <v>28</v>
       </c>
       <c r="B211" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C211" s="91"/>
       <c r="D211" s="91"/>
@@ -10456,7 +10513,7 @@
         <v>30</v>
       </c>
       <c r="C212" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D212" s="47" t="s">
         <v>35</v>
@@ -10476,10 +10533,10 @@
         <v>1</v>
       </c>
       <c r="B213" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C213" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D213" s="50"/>
       <c r="E213" s="50"/>
@@ -10496,7 +10553,7 @@
         <v>82</v>
       </c>
       <c r="C214" s="50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D214" s="50"/>
       <c r="E214" s="50"/>
@@ -10513,7 +10570,7 @@
         <v>125</v>
       </c>
       <c r="C215" s="50" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D215" s="50" t="s">
         <v>126</v>
@@ -10523,7 +10580,7 @@
         <v>5</v>
       </c>
       <c r="G215" s="52" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -10539,7 +10596,7 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="43" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B217" s="81" t="s">
         <v>120</v>
@@ -10566,7 +10623,7 @@
         <v>28</v>
       </c>
       <c r="B218" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C218" s="91"/>
       <c r="D218" s="91"/>
@@ -10582,7 +10639,7 @@
         <v>30</v>
       </c>
       <c r="C219" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D219" s="47" t="s">
         <v>35</v>
@@ -10602,10 +10659,10 @@
         <v>1</v>
       </c>
       <c r="B220" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C220" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D220" s="50"/>
       <c r="E220" s="50"/>
@@ -10622,7 +10679,7 @@
         <v>82</v>
       </c>
       <c r="C221" s="50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D221" s="50"/>
       <c r="E221" s="50"/>
@@ -10639,7 +10696,7 @@
         <v>127</v>
       </c>
       <c r="C222" s="50" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D222" s="50" t="s">
         <v>128</v>
@@ -10649,7 +10706,7 @@
         <v>5</v>
       </c>
       <c r="G222" s="49" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -10665,19 +10722,19 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="43" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B224" s="81" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C224" s="82" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D224" s="82" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E224" s="83" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F224" s="44" t="s">
         <v>27</v>
@@ -10692,7 +10749,7 @@
         <v>28</v>
       </c>
       <c r="B225" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C225" s="91"/>
       <c r="D225" s="91"/>
@@ -10708,7 +10765,7 @@
         <v>30</v>
       </c>
       <c r="C226" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D226" s="47" t="s">
         <v>35</v>
@@ -10728,10 +10785,10 @@
         <v>1</v>
       </c>
       <c r="B227" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C227" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D227" s="50"/>
       <c r="E227" s="50"/>
@@ -10748,7 +10805,7 @@
         <v>82</v>
       </c>
       <c r="C228" s="50" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D228" s="50"/>
       <c r="E228" s="50"/>
@@ -10762,10 +10819,10 @@
         <v>3</v>
       </c>
       <c r="B229" s="49" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C229" s="50" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D229" s="50" t="s">
         <v>128</v>
@@ -10789,7 +10846,7 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="43" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B231" s="81" t="s">
         <v>131</v>
@@ -10816,7 +10873,7 @@
         <v>28</v>
       </c>
       <c r="B232" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C232" s="91"/>
       <c r="D232" s="91"/>
@@ -10832,7 +10889,7 @@
         <v>30</v>
       </c>
       <c r="C233" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D233" s="47" t="s">
         <v>35</v>
@@ -10852,13 +10909,13 @@
         <v>1</v>
       </c>
       <c r="B234" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C234" s="50" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D234" s="50" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E234" s="50"/>
       <c r="F234" s="51" t="s">
@@ -10874,7 +10931,7 @@
         <v>82</v>
       </c>
       <c r="C235" s="50" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D235" s="50"/>
       <c r="E235" s="50"/>
@@ -10896,7 +10953,7 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="43" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B237" s="81" t="s">
         <v>130</v>
@@ -10923,7 +10980,7 @@
         <v>28</v>
       </c>
       <c r="B238" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C238" s="91"/>
       <c r="D238" s="91"/>
@@ -10939,7 +10996,7 @@
         <v>30</v>
       </c>
       <c r="C239" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D239" s="47" t="s">
         <v>35</v>
@@ -10959,10 +11016,10 @@
         <v>1</v>
       </c>
       <c r="B240" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C240" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D240" s="50"/>
       <c r="E240" s="50"/>
@@ -10979,7 +11036,7 @@
         <v>82</v>
       </c>
       <c r="C241" s="50" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D241" s="50" t="s">
         <v>132</v>
@@ -10998,7 +11055,7 @@
         <v>134</v>
       </c>
       <c r="C242" s="50" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D242" s="50" t="s">
         <v>133</v>
@@ -11008,7 +11065,7 @@
         <v>37</v>
       </c>
       <c r="G242" s="52" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -11024,7 +11081,7 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="43" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B244" s="81" t="s">
         <v>129</v>
@@ -11051,7 +11108,7 @@
         <v>28</v>
       </c>
       <c r="B245" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C245" s="91"/>
       <c r="D245" s="91"/>
@@ -11067,7 +11124,7 @@
         <v>30</v>
       </c>
       <c r="C246" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D246" s="47" t="s">
         <v>35</v>
@@ -11087,10 +11144,10 @@
         <v>1</v>
       </c>
       <c r="B247" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C247" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D247" s="50"/>
       <c r="E247" s="50"/>
@@ -11107,7 +11164,7 @@
         <v>82</v>
       </c>
       <c r="C248" s="50" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D248" s="50" t="s">
         <v>132</v>
@@ -11136,7 +11193,7 @@
         <v>5</v>
       </c>
       <c r="G249" s="52" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -11152,7 +11209,7 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="43" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B251" s="81" t="s">
         <v>139</v>
@@ -11179,7 +11236,7 @@
         <v>28</v>
       </c>
       <c r="B252" s="84" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C252" s="85"/>
       <c r="D252" s="85"/>
@@ -11195,7 +11252,7 @@
         <v>30</v>
       </c>
       <c r="C253" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D253" s="47" t="s">
         <v>35</v>
@@ -11215,10 +11272,10 @@
         <v>1</v>
       </c>
       <c r="B254" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C254" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D254" s="50"/>
       <c r="E254" s="50"/>
@@ -11235,7 +11292,7 @@
         <v>82</v>
       </c>
       <c r="C255" s="50" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D255" s="50" t="s">
         <v>132</v>
@@ -11276,7 +11333,7 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="43" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B258" s="81" t="s">
         <v>149</v>
@@ -11303,7 +11360,7 @@
         <v>28</v>
       </c>
       <c r="B259" s="84" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C259" s="85"/>
       <c r="D259" s="85"/>
@@ -11319,7 +11376,7 @@
         <v>30</v>
       </c>
       <c r="C260" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D260" s="47" t="s">
         <v>35</v>
@@ -11339,10 +11396,10 @@
         <v>1</v>
       </c>
       <c r="B261" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C261" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D261" s="50"/>
       <c r="E261" s="50"/>
@@ -11359,7 +11416,7 @@
         <v>150</v>
       </c>
       <c r="C262" s="50" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D262" s="50" t="s">
         <v>132</v>
@@ -11369,7 +11426,7 @@
         <v>5</v>
       </c>
       <c r="G262" s="68" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -11385,19 +11442,19 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="43" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B264" s="81" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C264" s="82" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D264" s="82" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E264" s="83" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F264" s="44" t="s">
         <v>27</v>
@@ -11412,7 +11469,7 @@
         <v>28</v>
       </c>
       <c r="B265" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C265" s="91"/>
       <c r="D265" s="91"/>
@@ -11428,7 +11485,7 @@
         <v>30</v>
       </c>
       <c r="C266" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D266" s="47" t="s">
         <v>35</v>
@@ -11448,10 +11505,10 @@
         <v>1</v>
       </c>
       <c r="B267" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C267" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D267" s="50"/>
       <c r="E267" s="50"/>
@@ -11465,10 +11522,10 @@
         <v>2</v>
       </c>
       <c r="B268" s="49" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C268" s="50" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D268" s="50"/>
       <c r="E268" s="50"/>
@@ -11476,7 +11533,7 @@
         <v>37</v>
       </c>
       <c r="G268" s="49" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -11492,19 +11549,19 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="43" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B270" s="81" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C270" s="82" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D270" s="82" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E270" s="83" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F270" s="44" t="s">
         <v>27</v>
@@ -11519,7 +11576,7 @@
         <v>28</v>
       </c>
       <c r="B271" s="84" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C271" s="85"/>
       <c r="D271" s="85"/>
@@ -11535,7 +11592,7 @@
         <v>30</v>
       </c>
       <c r="C272" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D272" s="47" t="s">
         <v>35</v>
@@ -11555,10 +11612,10 @@
         <v>1</v>
       </c>
       <c r="B273" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C273" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D273" s="50"/>
       <c r="E273" s="50"/>
@@ -11575,7 +11632,7 @@
         <v>125</v>
       </c>
       <c r="C274" s="50" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D274" s="50"/>
       <c r="E274" s="50"/>
@@ -11589,10 +11646,10 @@
         <v>3</v>
       </c>
       <c r="B275" s="49" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C275" s="50" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D275" s="50"/>
       <c r="E275" s="50"/>
@@ -11606,10 +11663,10 @@
         <v>4</v>
       </c>
       <c r="B276" s="49" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C276" s="50" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D276" s="50"/>
       <c r="E276" s="50"/>
@@ -11623,10 +11680,10 @@
         <v>5</v>
       </c>
       <c r="B277" s="49" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C277" s="50" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D277" s="50"/>
       <c r="E277" s="50"/>
@@ -11648,19 +11705,19 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="43" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B279" s="81" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C279" s="82" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D279" s="82" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E279" s="83" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F279" s="44" t="s">
         <v>27</v>
@@ -11675,7 +11732,7 @@
         <v>28</v>
       </c>
       <c r="B280" s="84" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C280" s="85"/>
       <c r="D280" s="85"/>
@@ -11691,7 +11748,7 @@
         <v>30</v>
       </c>
       <c r="C281" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D281" s="47" t="s">
         <v>35</v>
@@ -11711,10 +11768,10 @@
         <v>1</v>
       </c>
       <c r="B282" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C282" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D282" s="50"/>
       <c r="E282" s="50"/>
@@ -11731,7 +11788,7 @@
         <v>125</v>
       </c>
       <c r="C283" s="50" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D283" s="50"/>
       <c r="E283" s="50"/>
@@ -11745,10 +11802,10 @@
         <v>3</v>
       </c>
       <c r="B284" s="49" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C284" s="50" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D284" s="50"/>
       <c r="E284" s="50"/>
@@ -11762,10 +11819,10 @@
         <v>4</v>
       </c>
       <c r="B285" s="49" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C285" s="50" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D285" s="50"/>
       <c r="E285" s="50"/>
@@ -11787,19 +11844,19 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="43" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B287" s="81" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C287" s="82" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D287" s="82" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E287" s="83" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F287" s="44" t="s">
         <v>27</v>
@@ -11814,7 +11871,7 @@
         <v>28</v>
       </c>
       <c r="B288" s="84" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C288" s="85"/>
       <c r="D288" s="85"/>
@@ -11830,7 +11887,7 @@
         <v>30</v>
       </c>
       <c r="C289" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D289" s="47" t="s">
         <v>35</v>
@@ -11850,10 +11907,10 @@
         <v>1</v>
       </c>
       <c r="B290" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C290" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D290" s="50"/>
       <c r="E290" s="50"/>
@@ -11867,10 +11924,10 @@
         <v>2</v>
       </c>
       <c r="B291" s="49" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C291" s="50" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D291" s="50"/>
       <c r="E291" s="50"/>
@@ -11884,10 +11941,10 @@
         <v>3</v>
       </c>
       <c r="B292" s="49" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C292" s="50" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D292" s="50"/>
       <c r="E292" s="50"/>
@@ -11901,10 +11958,10 @@
         <v>4</v>
       </c>
       <c r="B293" s="49" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C293" s="50" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D293" s="50"/>
       <c r="E293" s="50"/>
@@ -11926,19 +11983,19 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="43" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B295" s="81" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C295" s="82" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D295" s="82" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E295" s="83" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F295" s="44" t="s">
         <v>27</v>
@@ -11953,7 +12010,7 @@
         <v>28</v>
       </c>
       <c r="B296" s="84" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C296" s="85"/>
       <c r="D296" s="85"/>
@@ -11969,7 +12026,7 @@
         <v>30</v>
       </c>
       <c r="C297" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D297" s="47" t="s">
         <v>35</v>
@@ -11989,10 +12046,10 @@
         <v>1</v>
       </c>
       <c r="B298" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C298" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D298" s="50"/>
       <c r="E298" s="50"/>
@@ -12006,10 +12063,10 @@
         <v>2</v>
       </c>
       <c r="B299" s="49" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C299" s="50" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D299" s="50"/>
       <c r="E299" s="50"/>
@@ -12023,10 +12080,10 @@
         <v>3</v>
       </c>
       <c r="B300" s="49" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C300" s="50" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D300" s="50"/>
       <c r="E300" s="50"/>
@@ -12046,19 +12103,19 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="43" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B302" s="81" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C302" s="82" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D302" s="82" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E302" s="83" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F302" s="44" t="s">
         <v>27</v>
@@ -12073,7 +12130,7 @@
         <v>28</v>
       </c>
       <c r="B303" s="84" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C303" s="85"/>
       <c r="D303" s="85"/>
@@ -12089,7 +12146,7 @@
         <v>30</v>
       </c>
       <c r="C304" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D304" s="47" t="s">
         <v>35</v>
@@ -12109,10 +12166,10 @@
         <v>1</v>
       </c>
       <c r="B305" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C305" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D305" s="50"/>
       <c r="E305" s="50"/>
@@ -12129,7 +12186,7 @@
         <v>86</v>
       </c>
       <c r="C306" s="50" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D306" s="50"/>
       <c r="E306" s="50"/>
@@ -12143,10 +12200,10 @@
         <v>3</v>
       </c>
       <c r="B307" s="49" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C307" s="50" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D307" s="50"/>
       <c r="E307" s="50"/>
@@ -12158,10 +12215,10 @@
         <v>4</v>
       </c>
       <c r="B308" s="49" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C308" s="50" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D308" s="50"/>
       <c r="E308" s="50"/>
@@ -12181,19 +12238,19 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="43" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B310" s="81" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C310" s="82" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D310" s="82" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E310" s="83" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F310" s="44" t="s">
         <v>27</v>
@@ -12208,7 +12265,7 @@
         <v>28</v>
       </c>
       <c r="B311" s="84" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C311" s="85"/>
       <c r="D311" s="85"/>
@@ -12224,7 +12281,7 @@
         <v>30</v>
       </c>
       <c r="C312" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D312" s="47" t="s">
         <v>35</v>
@@ -12244,10 +12301,10 @@
         <v>1</v>
       </c>
       <c r="B313" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C313" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D313" s="50"/>
       <c r="E313" s="50"/>
@@ -12261,10 +12318,10 @@
         <v>2</v>
       </c>
       <c r="B314" s="49" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C314" s="50" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D314" s="50"/>
       <c r="E314" s="50"/>
@@ -12278,10 +12335,10 @@
         <v>3</v>
       </c>
       <c r="B315" s="49" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C315" s="50" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D315" s="50"/>
       <c r="E315" s="50"/>
@@ -12295,10 +12352,10 @@
         <v>4</v>
       </c>
       <c r="B316" s="49" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C316" s="50" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D316" s="50"/>
       <c r="E316" s="50"/>
@@ -12320,19 +12377,19 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="43" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B318" s="81" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C318" s="82" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D318" s="82" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E318" s="83" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F318" s="44" t="s">
         <v>27</v>
@@ -12347,7 +12404,7 @@
         <v>28</v>
       </c>
       <c r="B319" s="84" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C319" s="85"/>
       <c r="D319" s="85"/>
@@ -12363,7 +12420,7 @@
         <v>30</v>
       </c>
       <c r="C320" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D320" s="47" t="s">
         <v>35</v>
@@ -12383,10 +12440,10 @@
         <v>1</v>
       </c>
       <c r="B321" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C321" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D321" s="50"/>
       <c r="E321" s="50"/>
@@ -12403,7 +12460,7 @@
         <v>86</v>
       </c>
       <c r="C322" s="50" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D322" s="50"/>
       <c r="E322" s="50"/>
@@ -12417,10 +12474,10 @@
         <v>3</v>
       </c>
       <c r="B323" s="49" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C323" s="50" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D323" s="50"/>
       <c r="E323" s="50"/>
@@ -12428,7 +12485,7 @@
         <v>5</v>
       </c>
       <c r="G323" s="52" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="15.75">
@@ -12436,10 +12493,10 @@
         <v>4</v>
       </c>
       <c r="B324" s="49" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C324" s="50" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D324" s="50"/>
       <c r="E324" s="50"/>
@@ -12461,19 +12518,19 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="43" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B326" s="81" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C326" s="82" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D326" s="82" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E326" s="83" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F326" s="44" t="s">
         <v>27</v>
@@ -12488,7 +12545,7 @@
         <v>28</v>
       </c>
       <c r="B327" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C327" s="91"/>
       <c r="D327" s="91"/>
@@ -12504,7 +12561,7 @@
         <v>30</v>
       </c>
       <c r="C328" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D328" s="47" t="s">
         <v>35</v>
@@ -12524,10 +12581,10 @@
         <v>1</v>
       </c>
       <c r="B329" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C329" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D329" s="50"/>
       <c r="E329" s="50"/>
@@ -12544,7 +12601,7 @@
         <v>86</v>
       </c>
       <c r="C330" s="50" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D330" s="50"/>
       <c r="E330" s="50"/>
@@ -12558,10 +12615,10 @@
         <v>3</v>
       </c>
       <c r="B331" s="49" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C331" s="50" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D331" s="50"/>
       <c r="E331" s="50"/>
@@ -12575,10 +12632,10 @@
         <v>4</v>
       </c>
       <c r="B332" s="49" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C332" s="50" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D332" s="50"/>
       <c r="E332" s="50"/>
@@ -12600,19 +12657,19 @@
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="43" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B334" s="81" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C334" s="82" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D334" s="82" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E334" s="83" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F334" s="44" t="s">
         <v>27</v>
@@ -12627,7 +12684,7 @@
         <v>28</v>
       </c>
       <c r="B335" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C335" s="91"/>
       <c r="D335" s="91"/>
@@ -12643,7 +12700,7 @@
         <v>30</v>
       </c>
       <c r="C336" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D336" s="47" t="s">
         <v>35</v>
@@ -12663,10 +12720,10 @@
         <v>1</v>
       </c>
       <c r="B337" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C337" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D337" s="50"/>
       <c r="E337" s="50"/>
@@ -12680,10 +12737,10 @@
         <v>2</v>
       </c>
       <c r="B338" s="49" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C338" s="50" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D338" s="50"/>
       <c r="E338" s="50"/>
@@ -12697,10 +12754,10 @@
         <v>3</v>
       </c>
       <c r="B339" s="49" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C339" s="61" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D339" s="50"/>
       <c r="E339" s="50"/>
@@ -12722,19 +12779,19 @@
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="43" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B341" s="81" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C341" s="82" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D341" s="82" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E341" s="83" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F341" s="44" t="s">
         <v>27</v>
@@ -12749,7 +12806,7 @@
         <v>28</v>
       </c>
       <c r="B342" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C342" s="91"/>
       <c r="D342" s="91"/>
@@ -12765,7 +12822,7 @@
         <v>30</v>
       </c>
       <c r="C343" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D343" s="47" t="s">
         <v>35</v>
@@ -12785,10 +12842,10 @@
         <v>1</v>
       </c>
       <c r="B344" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C344" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D344" s="50"/>
       <c r="E344" s="50"/>
@@ -12802,10 +12859,10 @@
         <v>2</v>
       </c>
       <c r="B345" s="49" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C345" s="50" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D345" s="50"/>
       <c r="E345" s="50"/>
@@ -12819,10 +12876,10 @@
         <v>3</v>
       </c>
       <c r="B346" s="49" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C346" s="50" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D346" s="50"/>
       <c r="E346" s="50"/>
@@ -12834,10 +12891,10 @@
         <v>4</v>
       </c>
       <c r="B347" s="49" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C347" s="50" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D347" s="50"/>
       <c r="E347" s="50"/>
@@ -12857,19 +12914,19 @@
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="43" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B349" s="81" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C349" s="82" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D349" s="82" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E349" s="83" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F349" s="44" t="s">
         <v>27</v>
@@ -12884,7 +12941,7 @@
         <v>28</v>
       </c>
       <c r="B350" s="90" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C350" s="91"/>
       <c r="D350" s="91"/>
@@ -12900,7 +12957,7 @@
         <v>30</v>
       </c>
       <c r="C351" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D351" s="47" t="s">
         <v>35</v>
@@ -12920,10 +12977,10 @@
         <v>1</v>
       </c>
       <c r="B352" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C352" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D352" s="50"/>
       <c r="E352" s="50"/>
@@ -12937,10 +12994,10 @@
         <v>2</v>
       </c>
       <c r="B353" s="49" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C353" s="50" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D353" s="50"/>
       <c r="E353" s="50"/>
@@ -12954,10 +13011,10 @@
         <v>3</v>
       </c>
       <c r="B354" s="49" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C354" s="50" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D354" s="50"/>
       <c r="E354" s="50"/>
@@ -12969,10 +13026,10 @@
         <v>4</v>
       </c>
       <c r="B355" s="49" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C355" s="50" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D355" s="50"/>
       <c r="E355" s="50"/>
@@ -12992,19 +13049,19 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="43" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B357" s="81" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C357" s="82" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D357" s="82" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E357" s="83" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F357" s="44" t="s">
         <v>27</v>
@@ -13019,7 +13076,7 @@
         <v>28</v>
       </c>
       <c r="B358" s="90" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C358" s="91"/>
       <c r="D358" s="91"/>
@@ -13035,7 +13092,7 @@
         <v>30</v>
       </c>
       <c r="C359" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D359" s="47" t="s">
         <v>35</v>
@@ -13055,10 +13112,10 @@
         <v>1</v>
       </c>
       <c r="B360" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C360" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D360" s="50"/>
       <c r="E360" s="50"/>
@@ -13072,10 +13129,10 @@
         <v>2</v>
       </c>
       <c r="B361" s="49" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C361" s="50" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D361" s="50"/>
       <c r="E361" s="50"/>
@@ -13089,10 +13146,10 @@
         <v>3</v>
       </c>
       <c r="B362" s="49" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C362" s="50" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D362" s="50"/>
       <c r="E362" s="50"/>
@@ -13107,10 +13164,10 @@
         <v>4</v>
       </c>
       <c r="B363" s="49" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C363" s="50" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D363" s="50"/>
       <c r="E363" s="50"/>
@@ -13118,7 +13175,7 @@
         <v>5</v>
       </c>
       <c r="G363" s="52" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="H363" s="16"/>
     </row>
@@ -13136,19 +13193,19 @@
     </row>
     <row r="365" spans="1:8" s="37" customFormat="1">
       <c r="A365" s="43" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B365" s="81" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C365" s="82" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D365" s="82" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E365" s="83" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F365" s="44" t="s">
         <v>27</v>
@@ -13164,7 +13221,7 @@
         <v>28</v>
       </c>
       <c r="B366" s="90" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C366" s="91"/>
       <c r="D366" s="91"/>
@@ -13181,7 +13238,7 @@
         <v>30</v>
       </c>
       <c r="C367" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D367" s="47" t="s">
         <v>35</v>
@@ -13202,10 +13259,10 @@
         <v>1</v>
       </c>
       <c r="B368" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C368" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D368" s="50"/>
       <c r="E368" s="50"/>
@@ -13220,10 +13277,10 @@
         <v>2</v>
       </c>
       <c r="B369" s="49" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C369" s="50" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D369" s="50"/>
       <c r="E369" s="50"/>
@@ -13238,10 +13295,10 @@
         <v>3</v>
       </c>
       <c r="B370" s="49" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C370" s="50" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D370" s="50"/>
       <c r="E370" s="50"/>
@@ -13256,10 +13313,10 @@
         <v>4</v>
       </c>
       <c r="B371" s="49" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C371" s="61" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D371" s="50"/>
       <c r="E371" s="50"/>
@@ -13274,10 +13331,10 @@
         <v>5</v>
       </c>
       <c r="B372" s="49" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C372" s="61" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D372" s="50"/>
       <c r="E372" s="50"/>
@@ -13301,10 +13358,10 @@
     </row>
     <row r="374" spans="1:8" s="37" customFormat="1">
       <c r="A374" s="43" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B374" s="81" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C374" s="82" t="s">
         <v>146</v>
@@ -13329,7 +13386,7 @@
         <v>28</v>
       </c>
       <c r="B375" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C375" s="91"/>
       <c r="D375" s="91"/>
@@ -13346,7 +13403,7 @@
         <v>30</v>
       </c>
       <c r="C376" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D376" s="47" t="s">
         <v>35</v>
@@ -13367,10 +13424,10 @@
         <v>1</v>
       </c>
       <c r="B377" s="65" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C377" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D377" s="50"/>
       <c r="E377" s="50"/>
@@ -13385,10 +13442,10 @@
         <v>2</v>
       </c>
       <c r="B378" s="49" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C378" s="50" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D378" s="50"/>
       <c r="E378" s="50"/>
@@ -13406,7 +13463,7 @@
         <v>125</v>
       </c>
       <c r="C379" s="61" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D379" s="50"/>
       <c r="E379" s="50"/>
@@ -13421,10 +13478,10 @@
         <v>4</v>
       </c>
       <c r="B380" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="C380" s="61" t="s">
         <v>279</v>
-      </c>
-      <c r="C380" s="61" t="s">
-        <v>290</v>
       </c>
       <c r="D380" s="50"/>
       <c r="E380" s="50"/>
@@ -13439,10 +13496,10 @@
         <v>5</v>
       </c>
       <c r="B381" s="49" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C381" s="61" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D381" s="50"/>
       <c r="E381" s="50"/>
@@ -13466,10 +13523,10 @@
     </row>
     <row r="383" spans="1:8" s="37" customFormat="1">
       <c r="A383" s="43" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B383" s="81" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C383" s="82" t="s">
         <v>147</v>
@@ -13494,7 +13551,7 @@
         <v>28</v>
       </c>
       <c r="B384" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C384" s="91"/>
       <c r="D384" s="91"/>
@@ -13511,7 +13568,7 @@
         <v>30</v>
       </c>
       <c r="C385" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D385" s="47" t="s">
         <v>35</v>
@@ -13532,10 +13589,10 @@
         <v>1</v>
       </c>
       <c r="B386" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C386" s="50" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D386" s="50"/>
       <c r="E386" s="50"/>
@@ -13550,10 +13607,10 @@
         <v>2</v>
       </c>
       <c r="B387" s="49" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C387" s="50" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D387" s="50"/>
       <c r="E387" s="50"/>
@@ -13568,10 +13625,10 @@
         <v>3</v>
       </c>
       <c r="B388" s="49" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C388" s="61" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D388" s="50"/>
       <c r="E388" s="50"/>
@@ -13589,7 +13646,7 @@
         <v>148</v>
       </c>
       <c r="C389" s="61" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D389" s="50"/>
       <c r="E389" s="50"/>
@@ -13613,19 +13670,19 @@
     </row>
     <row r="391" spans="1:8" s="37" customFormat="1">
       <c r="A391" s="43" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B391" s="81" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C391" s="82" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D391" s="82" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E391" s="83" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F391" s="44" t="s">
         <v>27</v>
@@ -13641,7 +13698,7 @@
         <v>28</v>
       </c>
       <c r="B392" s="90" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C392" s="91"/>
       <c r="D392" s="91"/>
@@ -13658,7 +13715,7 @@
         <v>30</v>
       </c>
       <c r="C393" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D393" s="47" t="s">
         <v>35</v>
@@ -13679,13 +13736,13 @@
         <v>1</v>
       </c>
       <c r="B394" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C394" s="50" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D394" s="50" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E394" s="50"/>
       <c r="F394" s="51" t="s">
@@ -13699,10 +13756,10 @@
         <v>2</v>
       </c>
       <c r="B395" s="49" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C395" s="61" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D395" s="50"/>
       <c r="E395" s="50"/>
@@ -13717,13 +13774,13 @@
         <v>3</v>
       </c>
       <c r="B396" s="49" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C396" s="61" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D396" s="50" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E396" s="50"/>
       <c r="F396" s="51" t="s">
@@ -13746,26 +13803,26 @@
     </row>
     <row r="398" spans="1:8" s="37" customFormat="1">
       <c r="A398" s="43" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B398" s="81" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C398" s="82" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D398" s="82" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E398" s="83" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F398" s="44" t="s">
         <v>27</v>
       </c>
       <c r="G398" s="45" t="str">
         <f>IF(COUNTIF(F401:F405,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F401:F405,"Fail")&gt;0,"Fail",IF(COUNTIF(F401:F405,"")=0,"Pass","Not Executed")))</f>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
       <c r="H398" s="16"/>
     </row>
@@ -13774,7 +13831,7 @@
         <v>28</v>
       </c>
       <c r="B399" s="84" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C399" s="85"/>
       <c r="D399" s="85"/>
@@ -13791,7 +13848,7 @@
         <v>30</v>
       </c>
       <c r="C400" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D400" s="47" t="s">
         <v>35</v>
@@ -13812,10 +13869,10 @@
         <v>1</v>
       </c>
       <c r="B401" s="49" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C401" s="50" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D401" s="50"/>
       <c r="E401" s="50"/>
@@ -13833,7 +13890,7 @@
         <v>82</v>
       </c>
       <c r="C402" s="61" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D402" s="50"/>
       <c r="E402" s="50"/>
@@ -13848,10 +13905,10 @@
         <v>3</v>
       </c>
       <c r="B403" s="49" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C403" s="61" t="s">
-        <v>343</v>
+        <v>460</v>
       </c>
       <c r="D403" s="50"/>
       <c r="E403" s="50"/>
@@ -13866,10 +13923,10 @@
         <v>4</v>
       </c>
       <c r="B404" s="49" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C404" s="61" t="s">
-        <v>400</v>
+        <v>461</v>
       </c>
       <c r="D404" s="50"/>
       <c r="E404" s="50"/>
@@ -13879,23 +13936,23 @@
       <c r="G404" s="52"/>
       <c r="H404" s="16"/>
     </row>
-    <row r="405" spans="1:8" s="37" customFormat="1" ht="15.75">
+    <row r="405" spans="1:8" s="37" customFormat="1" ht="30">
       <c r="A405" s="48">
         <v>5</v>
       </c>
       <c r="B405" s="49" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C405" s="61" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="D405" s="50"/>
       <c r="E405" s="50"/>
       <c r="F405" s="51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G405" s="52" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H405" s="16"/>
     </row>
@@ -13911,85 +13968,173 @@
       <c r="G406" s="89"/>
       <c r="H406" s="16"/>
     </row>
-    <row r="407" spans="1:8" s="37" customFormat="1" ht="15.75">
-      <c r="A407" s="17"/>
-      <c r="B407" s="36"/>
-      <c r="C407" s="36"/>
-      <c r="D407" s="56"/>
-      <c r="E407" s="57"/>
-      <c r="F407" s="58"/>
+    <row r="407" spans="1:8" s="37" customFormat="1">
+      <c r="A407" s="43" t="s">
+        <v>459</v>
+      </c>
+      <c r="B407" s="81" t="s">
+        <v>394</v>
+      </c>
+      <c r="C407" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="D407" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="E407" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="F407" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G407" s="45" t="str">
+        <f>IF(COUNTIF(F410:F411,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F410:F411,"Fail")&gt;0,"Fail",IF(COUNTIF(F410:F411,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
       <c r="H407" s="16"/>
     </row>
-    <row r="408" spans="1:8" s="37" customFormat="1" ht="15.75">
-      <c r="A408" s="17"/>
-      <c r="B408" s="36"/>
-      <c r="C408" s="36"/>
-      <c r="D408" s="56"/>
-      <c r="E408" s="57"/>
-      <c r="F408" s="58"/>
+    <row r="408" spans="1:8" s="37" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A408" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B408" s="84" t="s">
+        <v>385</v>
+      </c>
+      <c r="C408" s="85"/>
+      <c r="D408" s="85"/>
+      <c r="E408" s="85"/>
+      <c r="F408" s="85"/>
+      <c r="G408" s="86"/>
       <c r="H408" s="16"/>
     </row>
-    <row r="409" spans="1:8" s="37" customFormat="1" ht="15.75">
-      <c r="A409" s="17"/>
-      <c r="B409" s="36"/>
-      <c r="C409" s="36"/>
-      <c r="D409" s="56"/>
-      <c r="E409" s="57"/>
-      <c r="F409" s="58"/>
+    <row r="409" spans="1:8" s="37" customFormat="1">
+      <c r="A409" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B409" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C409" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D409" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E409" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F409" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G409" s="47" t="s">
+        <v>33</v>
+      </c>
       <c r="H409" s="16"/>
     </row>
-    <row r="410" spans="1:8" s="37" customFormat="1" ht="15.75">
-      <c r="A410" s="17"/>
-      <c r="B410" s="36"/>
-      <c r="C410" s="36"/>
-      <c r="D410" s="56"/>
-      <c r="E410" s="57"/>
-      <c r="F410" s="58"/>
+    <row r="410" spans="1:8" s="37" customFormat="1" ht="195">
+      <c r="A410" s="48">
+        <v>1</v>
+      </c>
+      <c r="B410" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C410" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="D410" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="E410" s="50"/>
+      <c r="F410" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G410" s="52"/>
       <c r="H410" s="16"/>
     </row>
     <row r="411" spans="1:8" s="37" customFormat="1" ht="15.75">
-      <c r="A411" s="17"/>
-      <c r="B411" s="36"/>
-      <c r="C411" s="36"/>
-      <c r="D411" s="56"/>
-      <c r="E411" s="57"/>
-      <c r="F411" s="58"/>
+      <c r="A411" s="48">
+        <v>2</v>
+      </c>
+      <c r="B411" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="C411" s="61" t="s">
+        <v>466</v>
+      </c>
+      <c r="D411" s="50"/>
+      <c r="E411" s="50"/>
+      <c r="F411" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G411" s="52"/>
       <c r="H411" s="16"/>
     </row>
-    <row r="412" spans="1:8" s="37" customFormat="1" ht="15.75">
-      <c r="A412" s="17"/>
-      <c r="B412" s="36"/>
-      <c r="C412" s="36"/>
-      <c r="D412" s="56"/>
-      <c r="E412" s="57"/>
-      <c r="F412" s="58"/>
+    <row r="412" spans="1:8" s="37" customFormat="1" ht="30">
+      <c r="A412" s="48">
+        <v>3</v>
+      </c>
+      <c r="B412" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="C412" s="61" t="s">
+        <v>465</v>
+      </c>
+      <c r="D412" s="50"/>
+      <c r="E412" s="50"/>
+      <c r="F412" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G412" s="52"/>
       <c r="H412" s="16"/>
     </row>
     <row r="413" spans="1:8" s="37" customFormat="1" ht="15.75">
-      <c r="A413" s="17"/>
-      <c r="B413" s="36"/>
-      <c r="C413" s="36"/>
-      <c r="D413" s="56"/>
-      <c r="E413" s="57"/>
-      <c r="F413" s="58"/>
+      <c r="A413" s="48">
+        <v>4</v>
+      </c>
+      <c r="B413" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="C413" s="61" t="s">
+        <v>467</v>
+      </c>
+      <c r="D413" s="50"/>
+      <c r="E413" s="50"/>
+      <c r="F413" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G413" s="52"/>
       <c r="H413" s="16"/>
     </row>
     <row r="414" spans="1:8" s="37" customFormat="1" ht="15.75">
-      <c r="A414" s="17"/>
-      <c r="B414" s="36"/>
-      <c r="C414" s="36"/>
-      <c r="D414" s="56"/>
-      <c r="E414" s="57"/>
-      <c r="F414" s="58"/>
+      <c r="A414" s="48">
+        <v>5</v>
+      </c>
+      <c r="B414" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="C414" s="61" t="s">
+        <v>471</v>
+      </c>
+      <c r="D414" s="50" t="s">
+        <v>468</v>
+      </c>
+      <c r="E414" s="50"/>
+      <c r="F414" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G414" s="52"/>
       <c r="H414" s="16"/>
     </row>
-    <row r="415" spans="1:8" s="37" customFormat="1" ht="15.75">
-      <c r="A415" s="17"/>
-      <c r="B415" s="36"/>
-      <c r="C415" s="36"/>
-      <c r="D415" s="56"/>
-      <c r="E415" s="57"/>
-      <c r="F415" s="58"/>
+    <row r="415" spans="1:8" s="37" customFormat="1">
+      <c r="A415" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B415" s="87"/>
+      <c r="C415" s="88"/>
+      <c r="D415" s="88"/>
+      <c r="E415" s="88"/>
+      <c r="F415" s="88"/>
+      <c r="G415" s="89"/>
       <c r="H415" s="16"/>
     </row>
     <row r="416" spans="1:8" s="37" customFormat="1" ht="15.75">
@@ -14028,15 +14173,6 @@
       <c r="F419" s="58"/>
       <c r="H419" s="16"/>
     </row>
-    <row r="420" spans="1:8" s="37" customFormat="1" ht="15.75">
-      <c r="A420" s="17"/>
-      <c r="B420" s="36"/>
-      <c r="C420" s="36"/>
-      <c r="D420" s="56"/>
-      <c r="E420" s="57"/>
-      <c r="F420" s="58"/>
-      <c r="H420" s="16"/>
-    </row>
     <row r="421" spans="1:8" s="37" customFormat="1" ht="15.75">
       <c r="A421" s="17"/>
       <c r="B421" s="36"/>
@@ -17934,44 +18070,8 @@
       <c r="F853" s="58"/>
       <c r="H853" s="16"/>
     </row>
-    <row r="854" spans="1:8" s="37" customFormat="1" ht="15.75">
-      <c r="A854" s="17"/>
-      <c r="B854" s="36"/>
-      <c r="C854" s="36"/>
-      <c r="D854" s="56"/>
-      <c r="E854" s="57"/>
-      <c r="F854" s="58"/>
-      <c r="H854" s="16"/>
-    </row>
-    <row r="855" spans="1:8" s="37" customFormat="1" ht="15.75">
-      <c r="A855" s="17"/>
-      <c r="B855" s="36"/>
-      <c r="C855" s="36"/>
-      <c r="D855" s="56"/>
-      <c r="E855" s="57"/>
-      <c r="F855" s="58"/>
-      <c r="H855" s="16"/>
-    </row>
-    <row r="856" spans="1:8" s="37" customFormat="1" ht="15.75">
-      <c r="A856" s="17"/>
-      <c r="B856" s="36"/>
-      <c r="C856" s="36"/>
-      <c r="D856" s="56"/>
-      <c r="E856" s="57"/>
-      <c r="F856" s="58"/>
-      <c r="H856" s="16"/>
-    </row>
-    <row r="857" spans="1:8" s="37" customFormat="1" ht="15.75">
-      <c r="A857" s="17"/>
-      <c r="B857" s="36"/>
-      <c r="C857" s="36"/>
-      <c r="D857" s="56"/>
-      <c r="E857" s="57"/>
-      <c r="F857" s="58"/>
-      <c r="H857" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="145">
+  <mergeCells count="148">
     <mergeCell ref="B374:E374"/>
     <mergeCell ref="B375:G375"/>
     <mergeCell ref="B382:G382"/>
@@ -18108,6 +18208,9 @@
     <mergeCell ref="B55:G55"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B407:E407"/>
+    <mergeCell ref="B408:G408"/>
+    <mergeCell ref="B415:G415"/>
     <mergeCell ref="B398:E398"/>
     <mergeCell ref="B399:G399"/>
     <mergeCell ref="B406:G406"/>
@@ -18119,7 +18222,7 @@
     <mergeCell ref="B397:G397"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F329:F332 F360:F363 F566:F568 F556:F561 F368:F372 F407:F412 F417:F427 F432:F442 F458:F464 F486:F488 F447:F453 F469:F475 F480:F481 F493:F499 F504:F510 F526:F528 F515:F521 F533:F536 F541:F543 F548:F551 F344:F347 F352:F355 F337:F339 F394:F396 F386:F389 F94:F99 F112:F115 F120:F123 F87:F89 F136:F140 F128:F131 F104:F107 F187:F190 F164:F173 F195:F199 F213:F215 F220:F222 F227:F229 F234:F235 F240:F242 F247:F249 F254:F256 F261:F262 F267:F268 F145:F149 F273:F277 F282:F285 F298:F300 F305:F308 F204:F208 F290:F293 F313:F316 F42:F45 F68:F72 F377:F381 F50:F54 F32:F37 F77:F82 F321:F324 F59:F63 F21:F27 F154:F159 F401:F405 F178:F182" xr:uid="{F4F72985-4085-4731-A21F-280773EDBBFB}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F329:F332 F360:F363 F562:F564 F552:F557 F368:F372 F178:F182 F428:F438 F454:F460 F482:F484 F443:F449 F465:F471 F476:F477 F489:F495 F500:F506 F522:F524 F511:F517 F529:F532 F537:F539 F544:F547 F344:F347 F352:F355 F337:F339 F394:F396 F386:F389 F94:F99 F112:F115 F120:F123 F87:F89 F136:F140 F128:F131 F104:F107 F187:F190 F164:F173 F195:F199 F213:F215 F220:F222 F227:F229 F234:F235 F240:F242 F247:F249 F254:F256 F261:F262 F267:F268 F145:F149 F273:F277 F282:F285 F298:F300 F305:F308 F204:F208 F290:F293 F313:F316 F42:F45 F68:F72 F377:F381 F50:F54 F32:F37 F77:F82 F321:F324 F59:F63 F21:F27 F154:F159 F401:F405 F421:F423 F410:F419" xr:uid="{F4F72985-4085-4731-A21F-280773EDBBFB}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TCS_SMART-Pivot_Grid.xlsx
+++ b/TCS_SMART-Pivot_Grid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumitr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E013D34-2E25-4E77-956A-33D8E65460FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC84BC2-79B3-47BE-8AD6-B19450AEF9B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="468">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -1236,9 +1236,6 @@
 4.Filter icon should be displayed on header</t>
   </si>
   <si>
-    <t>Currently doesn't filter based on company &amp; division</t>
-  </si>
-  <si>
     <t>Pending to verify expected behavior</t>
   </si>
   <si>
@@ -1253,9 +1250,6 @@
 4.Alberta, Calgary pivot grid columns should be displayed according to selected report type</t>
   </si>
   <si>
-    <t>currently working as pages cp - 0.00 in all sites</t>
-  </si>
-  <si>
     <t>Click/open any Ad View Pop up ("view ad/details")</t>
   </si>
   <si>
@@ -1302,12 +1296,6 @@
 </t>
   </si>
   <si>
-    <t>Rank on not get updated based on metrics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank is showing as Class </t>
-  </si>
-  <si>
     <t>Rank on value in dropdown doesn't get updated
 Rank on doesn't get enable</t>
   </si>
@@ -1350,10 +1338,6 @@
   </si>
   <si>
     <t>Select option "Greater than or Equals" &amp; Enter value in Filter text box</t>
-  </si>
-  <si>
-    <t>Currently doesn't filter properly
-checkbox icon is pending</t>
   </si>
   <si>
     <t>1.Record row cell will be highlighted in Grey color
@@ -1728,6 +1712,9 @@
   </si>
   <si>
     <t>All the data in Pivot should be displayed</t>
+  </si>
+  <si>
+    <t>Chart is disabled</t>
   </si>
 </sst>
 </file>
@@ -3548,126 +3535,126 @@
     <cellStyle name="40% - Accent2 2 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="40% - Accent2 2 3 2 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="40% - Accent2 2 3 2 2 2" xfId="150" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="40% - Accent2 2 3 2 2 2 2" xfId="155" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="40% - Accent2 2 3 2 2 3" xfId="153" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="40% - Accent3" xfId="6" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="40% - Accent4" xfId="21" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="40% - Accent5" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="40% - Accent6" xfId="53" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="60% - Accent1" xfId="41" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="60% - Accent2" xfId="14" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="60% - Accent3" xfId="18" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="60% - Accent4" xfId="47" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="60% - Accent5" xfId="63" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="60% - Accent6" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Accent1" xfId="64" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Accent1 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Accent1 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Accent1 2 2 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Accent1 2 2 2 2 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Accent1 2 2 2 2 3 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Accent1 2 3" xfId="66" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Accent1 2 3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Accent1 2 3 2 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Accent2" xfId="70" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Accent2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Accent2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Accent2 2 2 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Accent2 2 2 2 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Accent2 2 2 2 2 3 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Accent2 2 3" xfId="74" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Accent2 2 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Accent2 2 3 2 2" xfId="136" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Accent3" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Accent4" xfId="23" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Accent5" xfId="77" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Accent6" xfId="26" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Bad" xfId="78" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Calculation" xfId="8" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Check Cell" xfId="79" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Comma [0] 2" xfId="159" xr:uid="{CB3D8662-C62C-47CC-A325-1F7D4643E016}"/>
-    <cellStyle name="Comma [0] 3" xfId="160" xr:uid="{D97E1D90-57DA-4854-9C76-39D488B13601}"/>
-    <cellStyle name="Explanatory Text" xfId="80" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Good" xfId="81" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Heading 1" xfId="82" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Heading 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Heading 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Heading 2 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Heading 2 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Heading 2 2 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Heading 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Heading 4" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2 2 2 2" xfId="155" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2 2 3" xfId="153" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="40% - Accent3" xfId="6" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - Accent4" xfId="21" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="40% - Accent5" xfId="44" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - Accent6" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="60% - Accent1" xfId="41" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="60% - Accent2" xfId="14" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="60% - Accent3" xfId="18" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60% - Accent4" xfId="47" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="60% - Accent5" xfId="63" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="60% - Accent6" xfId="50" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Accent1" xfId="64" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Accent1 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Accent1 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3 3" xfId="4" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Accent1 2 3" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Accent1 2 3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Accent1 2 3 2 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Accent2" xfId="70" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Accent2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Accent2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Accent2 2 2 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Accent2 2 2 2 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Accent2 2 2 2 2 3 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Accent2 2 3" xfId="74" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Accent2 2 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Accent2 2 3 2 2" xfId="136" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Accent3" xfId="76" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Accent4" xfId="23" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Accent5" xfId="77" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Accent6" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Bad" xfId="78" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Calculation" xfId="8" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Check Cell" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Comma [0] 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Comma [0] 3" xfId="160" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Explanatory Text" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Good" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Heading 1" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Heading 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Heading 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Heading 2 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Heading 2 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Heading 2 2 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Heading 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Heading 4" xfId="91" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
     <cellStyle name="Hyperlink" xfId="92" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Hyperlink 3" xfId="95" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Hyperlink 4" xfId="96" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Hyperlink 5" xfId="137" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Input" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Linked Cell" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Neutral" xfId="59" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="95" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Hyperlink 4" xfId="96" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Hyperlink 5" xfId="137" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Input" xfId="97" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Linked Cell" xfId="98" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Neutral" xfId="59" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 2 2 2 2 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 2 2 2 2 3 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 2 2 2 2 3 2 3" xfId="104" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 2 4" xfId="106" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 2 4 2" xfId="134" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 2 4 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 2 4 2 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 2 4 2 3" xfId="152" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 2 5" xfId="158" xr:uid="{AD5C0BCD-61EE-4128-A0CF-267765CBC690}"/>
-    <cellStyle name="Normal 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Normal 3 2 4" xfId="140" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Normal 3 2 4 3" xfId="146" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Normal 3 2 4 3 2" xfId="156" xr:uid="{1F2584F6-B7F0-4CE8-B170-4C6F6FCB8C21}"/>
-    <cellStyle name="Normal 3 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Normal 3 4" xfId="139" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="151" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Normal 4" xfId="113" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Normal 5" xfId="114" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Note" xfId="68" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Output" xfId="19" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="TableStyleLight1" xfId="115" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="TableStyleLight1 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="TableStyleLight1 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="TableStyleLight1 2 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="TableStyleLight1 2 2 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="TableStyleLight1 2 2 2 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="TableStyleLight1 2 3" xfId="121" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="TableStyleLight1 2 4" xfId="142" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="TableStyleLight1 2 4 2" xfId="145" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="TableStyleLight1 2 4 3" xfId="148" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="TableStyleLight1 3" xfId="122" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="TableStyleLight1 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="TableStyleLight1 3 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="TableStyleLight1 3 2 3" xfId="125" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="TableStyleLight1 3 3" xfId="126" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="TableStyleLight1 3 4" xfId="141" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="TableStyleLight1 3 4 2" xfId="144" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="TableStyleLight1 3 4 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="157" xr:uid="{2DE9E773-73FF-4693-85AD-ADA716CCFA24}"/>
-    <cellStyle name="TableStyleLight1 4" xfId="67" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="TableStyleLight1 4 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="TableStyleLight1 4 3" xfId="128" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="TableStyleLight1 5" xfId="129" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="TableStyleLight1 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Title" xfId="131" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Total" xfId="132" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Warning Text" xfId="133" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Normal 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3 2 3" xfId="104" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 2 4" xfId="106" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="134" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 2 4 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 2 4 2 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 2 4 2 3" xfId="152" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 2 5" xfId="158" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 3" xfId="107" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 3 2 4" xfId="140" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="143" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 3 2 4 3" xfId="146" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 3 2 4 3 2" xfId="156" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 3 3" xfId="56" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Normal 3 4" xfId="139" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Normal 4" xfId="113" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Normal 5" xfId="114" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Note" xfId="68" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Output" xfId="19" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="115" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="TableStyleLight1 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="TableStyleLight1 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="TableStyleLight1 2 2 2 4" xfId="120" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="TableStyleLight1 2 3" xfId="121" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="TableStyleLight1 2 4" xfId="142" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="TableStyleLight1 2 4 2" xfId="145" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="TableStyleLight1 2 4 3" xfId="148" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="TableStyleLight1 3" xfId="122" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="TableStyleLight1 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="TableStyleLight1 3 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="TableStyleLight1 3 2 3" xfId="125" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="TableStyleLight1 3 3" xfId="126" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="TableStyleLight1 3 4" xfId="141" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="157" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="TableStyleLight1 4" xfId="67" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="TableStyleLight1 4 2" xfId="127" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="TableStyleLight1 4 3" xfId="128" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="TableStyleLight1 5" xfId="129" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="TableStyleLight1 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Title" xfId="131" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Total" xfId="132" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Warning Text" xfId="133" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3978,16 +3965,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4007,11 +3994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-391514080"/>
-        <c:axId val="-391509728"/>
+        <c:axId val="964316720"/>
+        <c:axId val="964312368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-391514080"/>
+        <c:axId val="964316720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,7 +4020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-391509728"/>
+        <c:crossAx val="964312368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4041,7 +4028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-391509728"/>
+        <c:axId val="964312368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4051,7 +4038,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-391514080"/>
+        <c:crossAx val="964316720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4281,10 +4268,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.91666666666666663</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.333333333333337E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4480,16 +4467,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5400,7 +5387,7 @@
   <dimension ref="A5:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5464,19 +5451,19 @@
       </c>
       <c r="B8" s="10">
         <f>'SMART - Pivot Grid'!G7</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C8" s="10">
         <f>'SMART - Pivot Grid'!G8</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" s="10">
         <f>'SMART - Pivot Grid'!G9</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10">
         <f>'SMART - Pivot Grid'!G10</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="10">
         <f>SUM(B8:E8)</f>
@@ -5484,7 +5471,7 @@
       </c>
       <c r="G8" s="11">
         <f>(B8+C8+D8)/(F8)</f>
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5502,19 +5489,19 @@
       </c>
       <c r="B10" s="8">
         <f>SUM(B8:B9)</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8">
         <f>SUM(C8:C9)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="8">
         <f>SUM(D8:D9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="8">
         <f>SUM(E8:E9)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10" s="8">
         <f>SUM(F8:F9)</f>
@@ -5522,7 +5509,7 @@
       </c>
       <c r="G10" s="9">
         <f>SUM(G8:G8)</f>
-        <v>0.91666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickTop="1">
@@ -5531,7 +5518,7 @@
       </c>
       <c r="G11" s="12">
         <f>100%-G10</f>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5555,7 +5542,7 @@
     <mergeCell ref="G6:G7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" location="'SMART - Pivot Grid'!A1" display="SMART-PivotGrid" xr:uid="{79ED8C7C-FA0F-4D0C-BACF-345F7C1EB733}"/>
+    <hyperlink ref="A8" location="'SMART - Pivot Grid'!A1" display="SMART-PivotGrid" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5564,10 +5551,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFE0A32-6BCF-4C88-980F-B61FEEB552A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -5581,7 +5568,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="69" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B1" s="59" t="s">
         <v>8</v>
@@ -5595,7 +5582,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="79" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -5622,7 +5609,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15">
@@ -5634,7 +5621,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -5732,7 +5719,7 @@
         <v>68</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5867,7 +5854,7 @@
         <v>262</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -5905,7 +5892,7 @@
         <v>129</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -5931,7 +5918,7 @@
         <v>149</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>218</v>
@@ -5947,7 +5934,7 @@
         <v>197</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -5982,7 +5969,7 @@
         <v>168</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -5996,7 +5983,7 @@
         <v>176</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -6010,7 +5997,7 @@
         <v>155</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -6024,7 +6011,7 @@
         <v>184</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -6068,7 +6055,7 @@
     <row r="41" spans="1:6" ht="15">
       <c r="A41" s="80"/>
       <c r="B41" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>171</v>
@@ -6080,7 +6067,7 @@
     <row r="42" spans="1:6" ht="15">
       <c r="A42" s="80"/>
       <c r="B42" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>191</v>
@@ -6092,10 +6079,10 @@
     <row r="43" spans="1:6" ht="15">
       <c r="A43" s="80"/>
       <c r="B43" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -6104,7 +6091,7 @@
     <row r="44" spans="1:6" ht="15">
       <c r="A44" s="80"/>
       <c r="B44" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>220</v>
@@ -6116,10 +6103,10 @@
     <row r="45" spans="1:6" ht="15">
       <c r="A45" s="80"/>
       <c r="B45" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -6128,16 +6115,16 @@
     <row r="46" spans="1:6" ht="15">
       <c r="A46" s="80"/>
       <c r="B46" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15">
       <c r="A47" s="80"/>
       <c r="B47" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>221</v>
@@ -6146,24 +6133,24 @@
     <row r="48" spans="1:6" ht="15">
       <c r="A48" s="80"/>
       <c r="B48" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D48" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="15">
       <c r="B49" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D49" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="15">
@@ -6190,11 +6177,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C3D7A5-0B6C-4507-AA1D-974707D1F480}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H853"/>
   <sheetViews>
-    <sheetView topLeftCell="A403" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B418" sqref="B418"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -6879,7 +6866,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="21">
-        <v>43804</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6896,7 +6883,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
@@ -6913,7 +6900,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
@@ -6935,7 +6922,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="26">
-        <v>43790</v>
+        <v>44049</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17"/>
@@ -6944,7 +6931,7 @@
       </c>
       <c r="G7" s="28">
         <f>COUNTIF(G11:G979,"Pass")</f>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
@@ -6960,7 +6947,7 @@
       </c>
       <c r="G8" s="28">
         <f>COUNTIF(G12:G980,"Fail")</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1">
@@ -6978,7 +6965,7 @@
       </c>
       <c r="G9" s="28">
         <f>COUNTIF(G13:G981,"Blocked")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1">
@@ -6994,7 +6981,7 @@
       </c>
       <c r="G10" s="28">
         <f>COUNTIF(G14:G982,"Not Executed")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7004,7 +6991,7 @@
       </c>
       <c r="C11" s="18">
         <f>G7</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17"/>
@@ -7018,7 +7005,7 @@
       </c>
       <c r="C12" s="18">
         <f>G8</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17"/>
@@ -7032,7 +7019,7 @@
       </c>
       <c r="C13" s="18">
         <f>G9</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="17"/>
@@ -7046,7 +7033,7 @@
       </c>
       <c r="C14" s="18">
         <f>G10</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="17"/>
@@ -7083,10 +7070,10 @@
     </row>
     <row r="18" spans="1:8" s="41" customFormat="1">
       <c r="A18" s="43" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C18" s="82"/>
       <c r="D18" s="82"/>
@@ -7147,7 +7134,7 @@
         <v>212</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="51" t="s">
@@ -7198,7 +7185,7 @@
         <v>224</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D24" s="50"/>
       <c r="E24" s="50"/>
@@ -7274,7 +7261,7 @@
     </row>
     <row r="29" spans="1:8" s="41" customFormat="1">
       <c r="A29" s="43" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B29" s="81" t="s">
         <v>45</v>
@@ -7451,7 +7438,7 @@
     </row>
     <row r="39" spans="1:7" s="41" customFormat="1">
       <c r="A39" s="43" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B39" s="81" t="s">
         <v>44</v>
@@ -7470,7 +7457,7 @@
       </c>
       <c r="G39" s="45" t="str">
         <f>IF(COUNTIF(F42:F45,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F42:F45,"Fail")&gt;0,"Fail",IF(COUNTIF(F42:F45,"")=0,"Pass","Not Executed")))</f>
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="41" customFormat="1">
@@ -7573,7 +7560,7 @@
       <c r="D45" s="50"/>
       <c r="E45" s="50"/>
       <c r="F45" s="51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G45" s="52"/>
     </row>
@@ -7590,7 +7577,7 @@
     </row>
     <row r="47" spans="1:7" s="41" customFormat="1">
       <c r="A47" s="43" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B47" s="81" t="s">
         <v>48</v>
@@ -7746,7 +7733,7 @@
     </row>
     <row r="56" spans="1:7" s="41" customFormat="1">
       <c r="A56" s="43" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B56" s="81" t="s">
         <v>228</v>
@@ -7846,7 +7833,7 @@
         <v>224</v>
       </c>
       <c r="C61" s="66" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D61" s="50"/>
       <c r="E61" s="50"/>
@@ -7902,7 +7889,7 @@
     </row>
     <row r="65" spans="1:7" s="41" customFormat="1">
       <c r="A65" s="43" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B65" s="81" t="s">
         <v>57</v>
@@ -8002,7 +7989,7 @@
         <v>56</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D70" s="50"/>
       <c r="E70" s="50"/>
@@ -8058,7 +8045,7 @@
     </row>
     <row r="74" spans="1:7" s="41" customFormat="1">
       <c r="A74" s="43" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B74" s="81" t="s">
         <v>58</v>
@@ -8077,7 +8064,7 @@
       </c>
       <c r="G74" s="45" t="str">
         <f>IF(COUNTIF(F77:F82,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F77:F82,"Fail")&gt;0,"Fail",IF(COUNTIF(F77:F82,"")=0,"Pass","Not Executed")))</f>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="41" customFormat="1">
@@ -8175,7 +8162,7 @@
         <v>63</v>
       </c>
       <c r="C80" s="66" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D80" s="50"/>
       <c r="E80" s="50"/>
@@ -8199,11 +8186,9 @@
       </c>
       <c r="E81" s="50"/>
       <c r="F81" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="49" t="s">
-        <v>337</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G81" s="49"/>
     </row>
     <row r="82" spans="1:7" s="41" customFormat="1" ht="45">
       <c r="A82" s="48">
@@ -8218,17 +8203,17 @@
       <c r="D82" s="50"/>
       <c r="E82" s="50"/>
       <c r="F82" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82" s="52" t="s">
-        <v>338</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G82" s="52"/>
     </row>
     <row r="83" spans="1:7" s="54" customFormat="1">
       <c r="A83" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="87"/>
+      <c r="B83" s="87">
+        <v>0</v>
+      </c>
       <c r="C83" s="88"/>
       <c r="D83" s="88"/>
       <c r="E83" s="88"/>
@@ -8237,7 +8222,7 @@
     </row>
     <row r="84" spans="1:7" s="41" customFormat="1">
       <c r="A84" s="43" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B84" s="81" t="s">
         <v>64</v>
@@ -8256,7 +8241,7 @@
       </c>
       <c r="G84" s="45" t="str">
         <f>IF(COUNTIF(F87:F89,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F87:F89,"Fail")&gt;0,"Fail",IF(COUNTIF(F87:F89,"")=0,"Pass","Not Executed")))</f>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="41" customFormat="1" ht="40.5" customHeight="1">
@@ -8264,7 +8249,7 @@
         <v>28</v>
       </c>
       <c r="B85" s="90" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C85" s="91" t="s">
         <v>61</v>
@@ -8320,10 +8305,10 @@
       </c>
       <c r="E87" s="50"/>
       <c r="F87" s="51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G87" s="49" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="41" customFormat="1" ht="30">
@@ -8339,7 +8324,7 @@
       <c r="D88" s="50"/>
       <c r="E88" s="50"/>
       <c r="F88" s="51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G88" s="52"/>
     </row>
@@ -8348,7 +8333,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="49" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C89" s="50" t="s">
         <v>232</v>
@@ -8356,10 +8341,10 @@
       <c r="D89" s="50"/>
       <c r="E89" s="50"/>
       <c r="F89" s="51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G89" s="52" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="54" customFormat="1">
@@ -8375,7 +8360,7 @@
     </row>
     <row r="91" spans="1:7" s="41" customFormat="1">
       <c r="A91" s="43" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B91" s="81" t="s">
         <v>65</v>
@@ -8394,7 +8379,7 @@
       </c>
       <c r="G91" s="45" t="str">
         <f>IF(COUNTIF(F94:F99,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F94:F99,"Fail")&gt;0,"Fail",IF(COUNTIF(F94:F99,"")=0,"Pass","Not Executed")))</f>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="41" customFormat="1">
@@ -8531,7 +8516,7 @@
       <c r="D99" s="50"/>
       <c r="E99" s="50"/>
       <c r="F99" s="51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G99" s="52"/>
     </row>
@@ -8548,7 +8533,7 @@
     </row>
     <row r="101" spans="1:7" s="41" customFormat="1">
       <c r="A101" s="43" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B101" s="81" t="s">
         <v>71</v>
@@ -8567,7 +8552,7 @@
       </c>
       <c r="G101" s="45" t="str">
         <f>IF(COUNTIF(F104:F107,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F104:F107,"Fail")&gt;0,"Fail",IF(COUNTIF(F104:F107,"")=0,"Pass","Not Executed")))</f>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="41" customFormat="1">
@@ -8670,10 +8655,10 @@
       <c r="D107" s="50"/>
       <c r="E107" s="50"/>
       <c r="F107" s="51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G107" s="52" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="54" customFormat="1">
@@ -8689,7 +8674,7 @@
     </row>
     <row r="109" spans="1:7" s="41" customFormat="1">
       <c r="A109" s="43" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B109" s="81" t="s">
         <v>215</v>
@@ -8828,7 +8813,7 @@
     </row>
     <row r="117" spans="1:7" s="41" customFormat="1">
       <c r="A117" s="43" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B117" s="81" t="s">
         <v>216</v>
@@ -8967,10 +8952,10 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="43" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B125" s="81" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C125" s="82" t="s">
         <v>75</v>
@@ -9083,7 +9068,7 @@
         <v>4</v>
       </c>
       <c r="B131" s="49" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C131" s="50" t="s">
         <v>93</v>
@@ -9110,7 +9095,7 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="43" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B133" s="81" t="s">
         <v>76</v>
@@ -9203,7 +9188,7 @@
         <v>4</v>
       </c>
       <c r="G137" s="52" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.75">
@@ -9273,7 +9258,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="43" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B142" s="81" t="s">
         <v>87</v>
@@ -9407,7 +9392,7 @@
         <v>236</v>
       </c>
       <c r="C149" s="50" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D149" s="50"/>
       <c r="E149" s="50"/>
@@ -9429,7 +9414,7 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="43" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B151" s="81" t="s">
         <v>85</v>
@@ -9580,7 +9565,7 @@
         <v>91</v>
       </c>
       <c r="C159" s="50" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D159" s="50"/>
       <c r="E159" s="50"/>
@@ -9602,7 +9587,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="43" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B161" s="81" t="s">
         <v>88</v>
@@ -9735,7 +9720,7 @@
         <v>5</v>
       </c>
       <c r="B168" s="49" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C168" s="50" t="s">
         <v>251</v>
@@ -9754,7 +9739,7 @@
         <v>6</v>
       </c>
       <c r="B169" s="49" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C169" s="50" t="s">
         <v>252</v>
@@ -9773,7 +9758,7 @@
         <v>7</v>
       </c>
       <c r="B170" s="49" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C170" s="50" t="s">
         <v>254</v>
@@ -9792,7 +9777,7 @@
         <v>8</v>
       </c>
       <c r="B171" s="49" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C171" s="50" t="s">
         <v>255</v>
@@ -9811,7 +9796,7 @@
         <v>9</v>
       </c>
       <c r="B172" s="49" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C172" s="50" t="s">
         <v>256</v>
@@ -9855,7 +9840,7 @@
     </row>
     <row r="175" spans="1:7" ht="15.75" customHeight="1">
       <c r="A175" s="43" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B175" s="81" t="s">
         <v>95</v>
@@ -10013,7 +9998,7 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="43" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B184" s="81" t="s">
         <v>116</v>
@@ -10040,7 +10025,7 @@
         <v>28</v>
       </c>
       <c r="B185" s="90" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C185" s="91"/>
       <c r="D185" s="91"/>
@@ -10154,7 +10139,7 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="43" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B192" s="81" t="s">
         <v>151</v>
@@ -10312,7 +10297,7 @@
     </row>
     <row r="201" spans="1:7" ht="18.75" customHeight="1">
       <c r="A201" s="43" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B201" s="81" t="s">
         <v>153</v>
@@ -10470,7 +10455,7 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="43" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B210" s="81" t="s">
         <v>119</v>
@@ -10489,7 +10474,7 @@
       </c>
       <c r="G210" s="45" t="str">
         <f>IF(COUNTIF(F213:F215,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F213:F215,"Fail")&gt;0,"Fail",IF(COUNTIF(F213:F215,"")=0,"Pass","Not Executed")))</f>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="24.75" customHeight="1">
@@ -10577,11 +10562,9 @@
       </c>
       <c r="E215" s="50"/>
       <c r="F215" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G215" s="52" t="s">
-        <v>321</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G215" s="52"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="53" t="s">
@@ -10596,7 +10579,7 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="43" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B217" s="81" t="s">
         <v>120</v>
@@ -10615,7 +10598,7 @@
       </c>
       <c r="G217" s="45" t="str">
         <f>IF(COUNTIF(F220:F222,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F220:F222,"Fail")&gt;0,"Fail",IF(COUNTIF(F220:F222,"")=0,"Pass","Not Executed")))</f>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="25.5" customHeight="1">
@@ -10703,11 +10686,9 @@
       </c>
       <c r="E222" s="50"/>
       <c r="F222" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G222" s="49" t="s">
-        <v>353</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G222" s="49"/>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="53" t="s">
@@ -10722,7 +10703,7 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="43" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B224" s="81" t="s">
         <v>262</v>
@@ -10846,7 +10827,7 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="43" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B231" s="81" t="s">
         <v>131</v>
@@ -10915,7 +10896,7 @@
         <v>212</v>
       </c>
       <c r="D234" s="50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E234" s="50"/>
       <c r="F234" s="51" t="s">
@@ -10931,7 +10912,7 @@
         <v>82</v>
       </c>
       <c r="C235" s="50" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D235" s="50"/>
       <c r="E235" s="50"/>
@@ -10953,7 +10934,7 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="43" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B237" s="81" t="s">
         <v>130</v>
@@ -10972,7 +10953,7 @@
       </c>
       <c r="G237" s="45" t="str">
         <f>IF(COUNTIF(F240:F242,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F240:F242,"Fail")&gt;0,"Fail",IF(COUNTIF(F240:F242,"")=0,"Pass","Not Executed")))</f>
-        <v>Blocked</v>
+        <v>Pass</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="39" customHeight="1">
@@ -11062,10 +11043,10 @@
       </c>
       <c r="E242" s="50"/>
       <c r="F242" s="51" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G242" s="52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -11081,7 +11062,7 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="43" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B244" s="81" t="s">
         <v>129</v>
@@ -11100,7 +11081,7 @@
       </c>
       <c r="G244" s="45" t="str">
         <f>IF(COUNTIF(F247:F249,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F247:F249,"Fail")&gt;0,"Fail",IF(COUNTIF(F247:F249,"")=0,"Pass","Not Executed")))</f>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="35.25" customHeight="1">
@@ -11190,11 +11171,9 @@
       </c>
       <c r="E249" s="50"/>
       <c r="F249" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G249" s="52" t="s">
-        <v>325</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G249" s="52"/>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="53" t="s">
@@ -11209,7 +11188,7 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="43" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B251" s="81" t="s">
         <v>139</v>
@@ -11333,7 +11312,7 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="43" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B258" s="81" t="s">
         <v>149</v>
@@ -11416,7 +11395,7 @@
         <v>150</v>
       </c>
       <c r="C262" s="50" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D262" s="50" t="s">
         <v>132</v>
@@ -11426,7 +11405,7 @@
         <v>5</v>
       </c>
       <c r="G262" s="68" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -11442,7 +11421,7 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="43" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B264" s="81" t="s">
         <v>197</v>
@@ -11533,7 +11512,7 @@
         <v>37</v>
       </c>
       <c r="G268" s="49" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -11549,7 +11528,7 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="43" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B270" s="81" t="s">
         <v>159</v>
@@ -11705,7 +11684,7 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="43" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B279" s="81" t="s">
         <v>164</v>
@@ -11844,7 +11823,7 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="43" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B287" s="81" t="s">
         <v>168</v>
@@ -11958,10 +11937,10 @@
         <v>4</v>
       </c>
       <c r="B293" s="49" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C293" s="50" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D293" s="50"/>
       <c r="E293" s="50"/>
@@ -11983,10 +11962,10 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="43" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B295" s="81" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C295" s="82" t="s">
         <v>176</v>
@@ -12002,7 +11981,7 @@
       </c>
       <c r="G295" s="45" t="str">
         <f>IF(COUNTIF(F298:F300,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F298:F300,"Fail")&gt;0,"Fail",IF(COUNTIF(F298:F300,"")=0,"Pass","Not Executed")))</f>
-        <v>Not Executed</v>
+        <v>Pass</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -12080,14 +12059,16 @@
         <v>3</v>
       </c>
       <c r="B300" s="49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C300" s="50" t="s">
         <v>269</v>
       </c>
       <c r="D300" s="50"/>
       <c r="E300" s="50"/>
-      <c r="F300" s="51"/>
+      <c r="F300" s="51" t="s">
+        <v>4</v>
+      </c>
       <c r="G300" s="52"/>
     </row>
     <row r="301" spans="1:7">
@@ -12103,7 +12084,7 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="43" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B302" s="81" t="s">
         <v>155</v>
@@ -12122,7 +12103,7 @@
       </c>
       <c r="G302" s="45" t="str">
         <f>IF(COUNTIF(F305:F308,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F305:F308,"Fail")&gt;0,"Fail",IF(COUNTIF(F305:F308,"")=0,"Pass","Not Executed")))</f>
-        <v>Not Executed</v>
+        <v>Pass</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -12207,7 +12188,9 @@
       </c>
       <c r="D307" s="50"/>
       <c r="E307" s="50"/>
-      <c r="F307" s="51"/>
+      <c r="F307" s="51" t="s">
+        <v>4</v>
+      </c>
       <c r="G307" s="52"/>
     </row>
     <row r="308" spans="1:7" ht="15.75">
@@ -12222,7 +12205,9 @@
       </c>
       <c r="D308" s="50"/>
       <c r="E308" s="50"/>
-      <c r="F308" s="51"/>
+      <c r="F308" s="51" t="s">
+        <v>4</v>
+      </c>
       <c r="G308" s="52"/>
     </row>
     <row r="309" spans="1:7">
@@ -12238,7 +12223,7 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="43" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B310" s="81" t="s">
         <v>184</v>
@@ -12377,7 +12362,7 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="43" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B318" s="81" t="s">
         <v>189</v>
@@ -12477,7 +12462,7 @@
         <v>190</v>
       </c>
       <c r="C323" s="50" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D323" s="50"/>
       <c r="E323" s="50"/>
@@ -12485,7 +12470,7 @@
         <v>5</v>
       </c>
       <c r="G323" s="52" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="15.75">
@@ -12518,7 +12503,7 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="43" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B326" s="81" t="s">
         <v>156</v>
@@ -12601,7 +12586,7 @@
         <v>86</v>
       </c>
       <c r="C330" s="50" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D330" s="50"/>
       <c r="E330" s="50"/>
@@ -12615,10 +12600,10 @@
         <v>3</v>
       </c>
       <c r="B331" s="49" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C331" s="50" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D331" s="50"/>
       <c r="E331" s="50"/>
@@ -12635,7 +12620,7 @@
         <v>160</v>
       </c>
       <c r="C332" s="50" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D332" s="50"/>
       <c r="E332" s="50"/>
@@ -12657,7 +12642,7 @@
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="43" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B334" s="81" t="s">
         <v>219</v>
@@ -12757,7 +12742,7 @@
         <v>273</v>
       </c>
       <c r="C339" s="61" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D339" s="50"/>
       <c r="E339" s="50"/>
@@ -12779,7 +12764,7 @@
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="43" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B341" s="81" t="s">
         <v>171</v>
@@ -12798,7 +12783,7 @@
       </c>
       <c r="G341" s="45" t="str">
         <f>IF(COUNTIF(F344:F347,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F344:F347,"Fail")&gt;0,"Fail",IF(COUNTIF(F344:F347,"")=0,"Pass","Not Executed")))</f>
-        <v>Not Executed</v>
+        <v>Pass</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="40.5" customHeight="1">
@@ -12859,7 +12844,7 @@
         <v>2</v>
       </c>
       <c r="B345" s="49" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C345" s="50" t="s">
         <v>172</v>
@@ -12883,7 +12868,9 @@
       </c>
       <c r="D346" s="50"/>
       <c r="E346" s="50"/>
-      <c r="F346" s="51"/>
+      <c r="F346" s="51" t="s">
+        <v>4</v>
+      </c>
       <c r="G346" s="52"/>
     </row>
     <row r="347" spans="1:7" ht="15.75">
@@ -12898,7 +12885,9 @@
       </c>
       <c r="D347" s="50"/>
       <c r="E347" s="50"/>
-      <c r="F347" s="51"/>
+      <c r="F347" s="51" t="s">
+        <v>4</v>
+      </c>
       <c r="G347" s="52"/>
     </row>
     <row r="348" spans="1:7">
@@ -12914,7 +12903,7 @@
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="43" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B349" s="81" t="s">
         <v>191</v>
@@ -12933,7 +12922,7 @@
       </c>
       <c r="G349" s="45" t="str">
         <f>IF(COUNTIF(F352:F355,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F352:F355,"Fail")&gt;0,"Fail",IF(COUNTIF(F352:F355,"")=0,"Pass","Not Executed")))</f>
-        <v>Not Executed</v>
+        <v>Pass</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="33" customHeight="1">
@@ -12994,7 +12983,7 @@
         <v>2</v>
       </c>
       <c r="B353" s="49" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C353" s="50" t="s">
         <v>173</v>
@@ -13018,7 +13007,9 @@
       </c>
       <c r="D354" s="50"/>
       <c r="E354" s="50"/>
-      <c r="F354" s="51"/>
+      <c r="F354" s="51" t="s">
+        <v>4</v>
+      </c>
       <c r="G354" s="52"/>
     </row>
     <row r="355" spans="1:8" ht="15.75">
@@ -13033,7 +13024,9 @@
       </c>
       <c r="D355" s="50"/>
       <c r="E355" s="50"/>
-      <c r="F355" s="51"/>
+      <c r="F355" s="51" t="s">
+        <v>4</v>
+      </c>
       <c r="G355" s="52"/>
     </row>
     <row r="356" spans="1:8">
@@ -13049,10 +13042,10 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="43" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B357" s="81" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C357" s="82" t="s">
         <v>220</v>
@@ -13175,7 +13168,7 @@
         <v>5</v>
       </c>
       <c r="G363" s="52" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H363" s="16"/>
     </row>
@@ -13193,7 +13186,7 @@
     </row>
     <row r="365" spans="1:8" s="37" customFormat="1">
       <c r="A365" s="43" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B365" s="81" t="s">
         <v>220</v>
@@ -13277,10 +13270,10 @@
         <v>2</v>
       </c>
       <c r="B369" s="49" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C369" s="50" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D369" s="50"/>
       <c r="E369" s="50"/>
@@ -13313,7 +13306,7 @@
         <v>4</v>
       </c>
       <c r="B371" s="49" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C371" s="61" t="s">
         <v>278</v>
@@ -13331,10 +13324,10 @@
         <v>5</v>
       </c>
       <c r="B372" s="49" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C372" s="61" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D372" s="50"/>
       <c r="E372" s="50"/>
@@ -13358,10 +13351,10 @@
     </row>
     <row r="374" spans="1:8" s="37" customFormat="1">
       <c r="A374" s="43" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B374" s="81" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C374" s="82" t="s">
         <v>146</v>
@@ -13463,7 +13456,7 @@
         <v>125</v>
       </c>
       <c r="C379" s="61" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D379" s="50"/>
       <c r="E379" s="50"/>
@@ -13496,10 +13489,10 @@
         <v>5</v>
       </c>
       <c r="B381" s="49" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C381" s="61" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D381" s="50"/>
       <c r="E381" s="50"/>
@@ -13523,10 +13516,10 @@
     </row>
     <row r="383" spans="1:8" s="37" customFormat="1">
       <c r="A383" s="43" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B383" s="81" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C383" s="82" t="s">
         <v>147</v>
@@ -13628,7 +13621,7 @@
         <v>281</v>
       </c>
       <c r="C388" s="61" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D388" s="50"/>
       <c r="E388" s="50"/>
@@ -13670,7 +13663,7 @@
     </row>
     <row r="391" spans="1:8" s="37" customFormat="1">
       <c r="A391" s="43" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B391" s="81" t="s">
         <v>221</v>
@@ -13689,7 +13682,7 @@
       </c>
       <c r="G391" s="45" t="str">
         <f>IF(COUNTIF(F394:F396,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F394:F396,"Fail")&gt;0,"Fail",IF(COUNTIF(F394:F396,"")=0,"Pass","Not Executed")))</f>
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="H391" s="16"/>
     </row>
@@ -13742,7 +13735,7 @@
         <v>282</v>
       </c>
       <c r="D394" s="50" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E394" s="50"/>
       <c r="F394" s="51" t="s">
@@ -13759,7 +13752,7 @@
         <v>281</v>
       </c>
       <c r="C395" s="61" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D395" s="50"/>
       <c r="E395" s="50"/>
@@ -13774,19 +13767,21 @@
         <v>3</v>
       </c>
       <c r="B396" s="49" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C396" s="61" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D396" s="50" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E396" s="50"/>
       <c r="F396" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G396" s="52"/>
+        <v>5</v>
+      </c>
+      <c r="G396" s="52" t="s">
+        <v>467</v>
+      </c>
       <c r="H396" s="16"/>
     </row>
     <row r="397" spans="1:8" s="37" customFormat="1">
@@ -13803,10 +13798,10 @@
     </row>
     <row r="398" spans="1:8" s="37" customFormat="1">
       <c r="A398" s="43" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B398" s="81" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C398" s="82" t="s">
         <v>222</v>
@@ -13831,7 +13826,7 @@
         <v>28</v>
       </c>
       <c r="B399" s="84" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C399" s="85"/>
       <c r="D399" s="85"/>
@@ -13908,7 +13903,7 @@
         <v>281</v>
       </c>
       <c r="C403" s="61" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D403" s="50"/>
       <c r="E403" s="50"/>
@@ -13923,10 +13918,10 @@
         <v>4</v>
       </c>
       <c r="B404" s="49" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C404" s="61" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D404" s="50"/>
       <c r="E404" s="50"/>
@@ -13941,10 +13936,10 @@
         <v>5</v>
       </c>
       <c r="B405" s="49" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C405" s="61" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D405" s="50"/>
       <c r="E405" s="50"/>
@@ -13952,7 +13947,7 @@
         <v>4</v>
       </c>
       <c r="G405" s="52" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H405" s="16"/>
     </row>
@@ -13970,10 +13965,10 @@
     </row>
     <row r="407" spans="1:8" s="37" customFormat="1">
       <c r="A407" s="43" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B407" s="81" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C407" s="82" t="s">
         <v>222</v>
@@ -13998,7 +13993,7 @@
         <v>28</v>
       </c>
       <c r="B408" s="84" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C408" s="85"/>
       <c r="D408" s="85"/>
@@ -14056,10 +14051,10 @@
         <v>2</v>
       </c>
       <c r="B411" s="49" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C411" s="61" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D411" s="50"/>
       <c r="E411" s="50"/>
@@ -14074,10 +14069,10 @@
         <v>3</v>
       </c>
       <c r="B412" s="49" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C412" s="61" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D412" s="50"/>
       <c r="E412" s="50"/>
@@ -14092,10 +14087,10 @@
         <v>4</v>
       </c>
       <c r="B413" s="49" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C413" s="61" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D413" s="50"/>
       <c r="E413" s="50"/>
@@ -14110,13 +14105,13 @@
         <v>5</v>
       </c>
       <c r="B414" s="49" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C414" s="61" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D414" s="50" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E414" s="50"/>
       <c r="F414" s="51" t="s">
@@ -18222,7 +18217,7 @@
     <mergeCell ref="B397:G397"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F329:F332 F360:F363 F562:F564 F552:F557 F368:F372 F178:F182 F428:F438 F454:F460 F482:F484 F443:F449 F465:F471 F476:F477 F489:F495 F500:F506 F522:F524 F511:F517 F529:F532 F537:F539 F544:F547 F344:F347 F352:F355 F337:F339 F394:F396 F386:F389 F94:F99 F112:F115 F120:F123 F87:F89 F136:F140 F128:F131 F104:F107 F187:F190 F164:F173 F195:F199 F213:F215 F220:F222 F227:F229 F234:F235 F240:F242 F247:F249 F254:F256 F261:F262 F267:F268 F145:F149 F273:F277 F282:F285 F298:F300 F305:F308 F204:F208 F290:F293 F313:F316 F42:F45 F68:F72 F377:F381 F50:F54 F32:F37 F77:F82 F321:F324 F59:F63 F21:F27 F154:F159 F401:F405 F421:F423 F410:F419" xr:uid="{F4F72985-4085-4731-A21F-280773EDBBFB}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F329:F332 F360:F363 F562:F564 F552:F557 F368:F372 F178:F182 F428:F438 F454:F460 F482:F484 F443:F449 F465:F471 F476:F477 F489:F495 F500:F506 F522:F524 F511:F517 F529:F532 F537:F539 F544:F547 F344:F347 F352:F355 F337:F339 F394:F396 F386:F389 F94:F99 F112:F115 F120:F123 F87:F89 F136:F140 F128:F131 F104:F107 F187:F190 F164:F173 F195:F199 F213:F215 F220:F222 F227:F229 F234:F235 F240:F242 F247:F249 F254:F256 F261:F262 F267:F268 F145:F149 F273:F277 F282:F285 F298:F300 F305:F308 F204:F208 F290:F293 F313:F316 F42:F45 F68:F72 F377:F381 F50:F54 F32:F37 F77:F82 F321:F324 F59:F63 F21:F27 F154:F159 F401:F405 F421:F423 F410:F419" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
